--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.60378154449586</v>
+        <v>3.603781544495973</v>
       </c>
       <c r="C2">
-        <v>0.9783899098389384</v>
+        <v>0.9783899098393647</v>
       </c>
       <c r="D2">
-        <v>0.02559331991369973</v>
+        <v>0.02559331991369618</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6510045428221787</v>
+        <v>0.6510045428221929</v>
       </c>
       <c r="G2">
-        <v>0.4329875792933109</v>
+        <v>0.4329875792933322</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.120699484199463</v>
+        <v>3.120699484199235</v>
       </c>
       <c r="C3">
-        <v>0.8518391583313303</v>
+        <v>0.8518391583311882</v>
       </c>
       <c r="D3">
-        <v>0.02418179092064321</v>
+        <v>0.02418179092046202</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.589226921484105</v>
+        <v>0.5892269214840908</v>
       </c>
       <c r="G3">
-        <v>0.3982401566068461</v>
+        <v>0.3982401566068745</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.826355881920847</v>
+        <v>2.826355881920733</v>
       </c>
       <c r="C4">
-        <v>0.7745733170743279</v>
+        <v>0.7745733170741858</v>
       </c>
       <c r="D4">
-        <v>0.02337023010714745</v>
+        <v>0.02337023010713324</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5545412012445965</v>
+        <v>0.5545412012445894</v>
       </c>
       <c r="G4">
-        <v>0.3795484122318982</v>
+        <v>0.3795484122318911</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.706872158199189</v>
+        <v>2.706872158199076</v>
       </c>
       <c r="C5">
-        <v>0.7431705936855622</v>
+        <v>0.7431705936853632</v>
       </c>
       <c r="D5">
-        <v>0.0230520637812397</v>
+        <v>0.02305206378096969</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5411505377447341</v>
+        <v>0.541150537744727</v>
       </c>
       <c r="G5">
-        <v>0.3725388356947619</v>
+        <v>0.372538835694769</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.687057012707783</v>
+        <v>2.687057012707612</v>
       </c>
       <c r="C6">
-        <v>0.7379605319584641</v>
+        <v>0.737960531958322</v>
       </c>
       <c r="D6">
-        <v>0.0229999548756652</v>
+        <v>0.02299995487553019</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5389699594270354</v>
+        <v>0.538969959427078</v>
       </c>
       <c r="G6">
-        <v>0.371409999202541</v>
+        <v>0.3714099992025481</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.82474274061758</v>
+        <v>2.824742740617523</v>
       </c>
       <c r="C7">
-        <v>0.774149502811099</v>
+        <v>0.7741495028110705</v>
       </c>
       <c r="D7">
-        <v>0.02336589001616218</v>
+        <v>0.02336589001621903</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5543576888871442</v>
+        <v>0.5543576888871158</v>
       </c>
       <c r="G7">
-        <v>0.3794514915047671</v>
+        <v>0.3794514915047813</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.436676001453804</v>
+        <v>3.436676001453861</v>
       </c>
       <c r="C8">
-        <v>0.934648075649136</v>
+        <v>0.9346480756491928</v>
       </c>
       <c r="D8">
-        <v>0.02509435044959574</v>
+        <v>0.02509435044971298</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6289846993961703</v>
+        <v>0.6289846993961561</v>
       </c>
       <c r="G8">
         <v>0.420422194988582</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.660084287608129</v>
+        <v>4.660084287608242</v>
       </c>
       <c r="C9">
-        <v>1.254169964856487</v>
+        <v>1.254169964856601</v>
       </c>
       <c r="D9">
-        <v>0.02898848325374814</v>
+        <v>0.02898848325339998</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0.8046551424871637</v>
       </c>
       <c r="G9">
-        <v>0.524571666974424</v>
+        <v>0.5245716669743956</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.581630641427182</v>
+        <v>5.581630641427012</v>
       </c>
       <c r="C10">
-        <v>1.493913731176406</v>
+        <v>1.493913731176519</v>
       </c>
       <c r="D10">
-        <v>0.03226501853602315</v>
+        <v>0.03226501853579578</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0.9571226697784994</v>
       </c>
       <c r="G10">
-        <v>0.619987056433672</v>
+        <v>0.6199870564336578</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>6.007955732084213</v>
       </c>
       <c r="C11">
-        <v>1.604596906648453</v>
+        <v>1.604596906648283</v>
       </c>
       <c r="D11">
-        <v>0.03387452712652106</v>
+        <v>0.03387452712654948</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>1.032974708307535</v>
       </c>
       <c r="G11">
-        <v>0.6686173953775238</v>
+        <v>0.668617395377531</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>6.170621082262812</v>
       </c>
       <c r="C12">
-        <v>1.646793916589615</v>
+        <v>1.646793916589729</v>
       </c>
       <c r="D12">
-        <v>0.03450394975622117</v>
+        <v>0.03450394975627091</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.062766574075525</v>
+        <v>1.062766574075482</v>
       </c>
       <c r="G12">
         <v>0.6878912979340797</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.135530186117705</v>
+        <v>6.135530186117649</v>
       </c>
       <c r="C13">
-        <v>1.637692545842299</v>
+        <v>1.637692545842185</v>
       </c>
       <c r="D13">
-        <v>0.03436745610374459</v>
+        <v>0.03436745610363801</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.056300522241386</v>
+        <v>1.056300522241358</v>
       </c>
       <c r="G13">
         <v>0.6837002744635683</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.021312497780571</v>
+        <v>6.021312497780627</v>
       </c>
       <c r="C14">
-        <v>1.60806248261224</v>
+        <v>1.608062482612297</v>
       </c>
       <c r="D14">
-        <v>0.03392589285397207</v>
+        <v>0.03392589285407155</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.035403460456536</v>
+        <v>1.035403460456521</v>
       </c>
       <c r="G14">
-        <v>0.6701851992234538</v>
+        <v>0.6701851992234609</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.951516893626888</v>
+        <v>5.951516893626831</v>
       </c>
       <c r="C15">
-        <v>1.589951764410898</v>
+        <v>1.589951764410841</v>
       </c>
       <c r="D15">
-        <v>0.03365810998155894</v>
+        <v>0.03365810998165841</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>1.022746818809665</v>
       </c>
       <c r="G15">
-        <v>0.6620220621201156</v>
+        <v>0.6620220621201227</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.553929134961948</v>
+        <v>5.553929134962175</v>
       </c>
       <c r="C16">
-        <v>1.486717136588652</v>
+        <v>1.486717136588766</v>
       </c>
       <c r="D16">
-        <v>0.03216246001976231</v>
+        <v>0.03216246001976941</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9523073571338756</v>
+        <v>0.9523073571338614</v>
       </c>
       <c r="G16">
-        <v>0.6169229621745984</v>
+        <v>0.6169229621746126</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.311979463678597</v>
+        <v>5.311979463678767</v>
       </c>
       <c r="C17">
-        <v>1.423835481399465</v>
+        <v>1.423835481399692</v>
       </c>
       <c r="D17">
-        <v>0.03127728795982421</v>
+        <v>0.03127728795977447</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9108488542340609</v>
+        <v>0.9108488542340467</v>
       </c>
       <c r="G17">
         <v>0.5906666587560849</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.173472005940539</v>
+        <v>5.173472005940482</v>
       </c>
       <c r="C18">
-        <v>1.387816967198034</v>
+        <v>1.387816967197864</v>
       </c>
       <c r="D18">
-        <v>0.03077916898686794</v>
+        <v>0.03077916898688926</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8876052744788723</v>
+        <v>0.8876052744788865</v>
       </c>
       <c r="G18">
-        <v>0.5760494088127075</v>
+        <v>0.5760494088127359</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.126682573802157</v>
+        <v>5.1266825738021</v>
       </c>
       <c r="C19">
-        <v>1.375645935580508</v>
+        <v>1.37564593558028</v>
       </c>
       <c r="D19">
         <v>0.03061232572555639</v>
@@ -1073,7 +1073,7 @@
         <v>0.8798350022149179</v>
       </c>
       <c r="G19">
-        <v>0.5711804501650803</v>
+        <v>0.5711804501650874</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>5.337666176301241</v>
       </c>
       <c r="C20">
-        <v>1.430513539026663</v>
+        <v>1.430513539026606</v>
       </c>
       <c r="D20">
-        <v>0.03137035753483985</v>
+        <v>0.03137035753493933</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9151989296888701</v>
+        <v>0.9151989296888843</v>
       </c>
       <c r="G20">
-        <v>0.5934107899840271</v>
+        <v>0.5934107899840484</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.054826002563118</v>
+        <v>6.054826002563289</v>
       </c>
       <c r="C21">
-        <v>1.616757417169424</v>
+        <v>1.616757417169765</v>
       </c>
       <c r="D21">
-        <v>0.03405502499013124</v>
+        <v>0.03405502498996071</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.530786692831555</v>
+        <v>6.530786692831668</v>
       </c>
       <c r="C22">
-        <v>1.740160411127363</v>
+        <v>1.740160411127533</v>
       </c>
       <c r="D22">
         <v>0.03592744613972343</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.27601971764517</v>
+        <v>6.276019717645056</v>
       </c>
       <c r="C23">
-        <v>1.674125623839529</v>
+        <v>1.674125623839245</v>
       </c>
       <c r="D23">
-        <v>0.03491627030227562</v>
+        <v>0.03491627030233957</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.082316896971165</v>
+        <v>1.08231689697115</v>
       </c>
       <c r="G23">
-        <v>0.7005885139649877</v>
+        <v>0.7005885139649806</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.326051382626417</v>
+        <v>5.326051382626474</v>
       </c>
       <c r="C24">
-        <v>1.427493978670725</v>
+        <v>1.427493978670952</v>
       </c>
       <c r="D24">
-        <v>0.03132824741624063</v>
+        <v>0.03132824741625484</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.913230428244006</v>
+        <v>0.9132304282439776</v>
       </c>
       <c r="G24">
-        <v>0.5921686877950378</v>
+        <v>0.5921686877950236</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>4.325798155370308</v>
       </c>
       <c r="C25">
-        <v>1.16701854525752</v>
+        <v>1.16701854525769</v>
       </c>
       <c r="D25">
-        <v>0.02787073954078778</v>
+        <v>0.02787073954079489</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7534573081245384</v>
+        <v>0.7534573081245526</v>
       </c>
       <c r="G25">
         <v>0.4934238524520111</v>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.603781544495973</v>
+        <v>3.60378154449586</v>
       </c>
       <c r="C2">
-        <v>0.9783899098393647</v>
+        <v>0.9783899098389384</v>
       </c>
       <c r="D2">
-        <v>0.02559331991369618</v>
+        <v>0.02559331991369973</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6510045428221929</v>
+        <v>0.6510045428221787</v>
       </c>
       <c r="G2">
-        <v>0.4329875792933322</v>
+        <v>0.4329875792933109</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.120699484199235</v>
+        <v>3.120699484199463</v>
       </c>
       <c r="C3">
-        <v>0.8518391583311882</v>
+        <v>0.8518391583313303</v>
       </c>
       <c r="D3">
-        <v>0.02418179092046202</v>
+        <v>0.02418179092064321</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5892269214840908</v>
+        <v>0.589226921484105</v>
       </c>
       <c r="G3">
-        <v>0.3982401566068745</v>
+        <v>0.3982401566068461</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.826355881920733</v>
+        <v>2.826355881920847</v>
       </c>
       <c r="C4">
-        <v>0.7745733170741858</v>
+        <v>0.7745733170743279</v>
       </c>
       <c r="D4">
-        <v>0.02337023010713324</v>
+        <v>0.02337023010714745</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5545412012445894</v>
+        <v>0.5545412012445965</v>
       </c>
       <c r="G4">
-        <v>0.3795484122318911</v>
+        <v>0.3795484122318982</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.706872158199076</v>
+        <v>2.706872158199189</v>
       </c>
       <c r="C5">
-        <v>0.7431705936853632</v>
+        <v>0.7431705936855622</v>
       </c>
       <c r="D5">
-        <v>0.02305206378096969</v>
+        <v>0.0230520637812397</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.541150537744727</v>
+        <v>0.5411505377447341</v>
       </c>
       <c r="G5">
-        <v>0.372538835694769</v>
+        <v>0.3725388356947619</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.687057012707612</v>
+        <v>2.687057012707783</v>
       </c>
       <c r="C6">
-        <v>0.737960531958322</v>
+        <v>0.7379605319584641</v>
       </c>
       <c r="D6">
-        <v>0.02299995487553019</v>
+        <v>0.0229999548756652</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.538969959427078</v>
+        <v>0.5389699594270354</v>
       </c>
       <c r="G6">
-        <v>0.3714099992025481</v>
+        <v>0.371409999202541</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.824742740617523</v>
+        <v>2.82474274061758</v>
       </c>
       <c r="C7">
-        <v>0.7741495028110705</v>
+        <v>0.774149502811099</v>
       </c>
       <c r="D7">
-        <v>0.02336589001621903</v>
+        <v>0.02336589001616218</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5543576888871158</v>
+        <v>0.5543576888871442</v>
       </c>
       <c r="G7">
-        <v>0.3794514915047813</v>
+        <v>0.3794514915047671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.436676001453861</v>
+        <v>3.436676001453804</v>
       </c>
       <c r="C8">
-        <v>0.9346480756491928</v>
+        <v>0.934648075649136</v>
       </c>
       <c r="D8">
-        <v>0.02509435044971298</v>
+        <v>0.02509435044959574</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6289846993961561</v>
+        <v>0.6289846993961703</v>
       </c>
       <c r="G8">
         <v>0.420422194988582</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.660084287608242</v>
+        <v>4.660084287608129</v>
       </c>
       <c r="C9">
-        <v>1.254169964856601</v>
+        <v>1.254169964856487</v>
       </c>
       <c r="D9">
-        <v>0.02898848325339998</v>
+        <v>0.02898848325374814</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0.8046551424871637</v>
       </c>
       <c r="G9">
-        <v>0.5245716669743956</v>
+        <v>0.524571666974424</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.581630641427012</v>
+        <v>5.581630641427182</v>
       </c>
       <c r="C10">
-        <v>1.493913731176519</v>
+        <v>1.493913731176406</v>
       </c>
       <c r="D10">
-        <v>0.03226501853579578</v>
+        <v>0.03226501853602315</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0.9571226697784994</v>
       </c>
       <c r="G10">
-        <v>0.6199870564336578</v>
+        <v>0.619987056433672</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>6.007955732084213</v>
       </c>
       <c r="C11">
-        <v>1.604596906648283</v>
+        <v>1.604596906648453</v>
       </c>
       <c r="D11">
-        <v>0.03387452712654948</v>
+        <v>0.03387452712652106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>1.032974708307535</v>
       </c>
       <c r="G11">
-        <v>0.668617395377531</v>
+        <v>0.6686173953775238</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>6.170621082262812</v>
       </c>
       <c r="C12">
-        <v>1.646793916589729</v>
+        <v>1.646793916589615</v>
       </c>
       <c r="D12">
-        <v>0.03450394975627091</v>
+        <v>0.03450394975622117</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.062766574075482</v>
+        <v>1.062766574075525</v>
       </c>
       <c r="G12">
         <v>0.6878912979340797</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.135530186117649</v>
+        <v>6.135530186117705</v>
       </c>
       <c r="C13">
-        <v>1.637692545842185</v>
+        <v>1.637692545842299</v>
       </c>
       <c r="D13">
-        <v>0.03436745610363801</v>
+        <v>0.03436745610374459</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.056300522241358</v>
+        <v>1.056300522241386</v>
       </c>
       <c r="G13">
         <v>0.6837002744635683</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.021312497780627</v>
+        <v>6.021312497780571</v>
       </c>
       <c r="C14">
-        <v>1.608062482612297</v>
+        <v>1.60806248261224</v>
       </c>
       <c r="D14">
-        <v>0.03392589285407155</v>
+        <v>0.03392589285397207</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.035403460456521</v>
+        <v>1.035403460456536</v>
       </c>
       <c r="G14">
-        <v>0.6701851992234609</v>
+        <v>0.6701851992234538</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.951516893626831</v>
+        <v>5.951516893626888</v>
       </c>
       <c r="C15">
-        <v>1.589951764410841</v>
+        <v>1.589951764410898</v>
       </c>
       <c r="D15">
-        <v>0.03365810998165841</v>
+        <v>0.03365810998155894</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>1.022746818809665</v>
       </c>
       <c r="G15">
-        <v>0.6620220621201227</v>
+        <v>0.6620220621201156</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.553929134962175</v>
+        <v>5.553929134961948</v>
       </c>
       <c r="C16">
-        <v>1.486717136588766</v>
+        <v>1.486717136588652</v>
       </c>
       <c r="D16">
-        <v>0.03216246001976941</v>
+        <v>0.03216246001976231</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9523073571338614</v>
+        <v>0.9523073571338756</v>
       </c>
       <c r="G16">
-        <v>0.6169229621746126</v>
+        <v>0.6169229621745984</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.311979463678767</v>
+        <v>5.311979463678597</v>
       </c>
       <c r="C17">
-        <v>1.423835481399692</v>
+        <v>1.423835481399465</v>
       </c>
       <c r="D17">
-        <v>0.03127728795977447</v>
+        <v>0.03127728795982421</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9108488542340467</v>
+        <v>0.9108488542340609</v>
       </c>
       <c r="G17">
         <v>0.5906666587560849</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.173472005940482</v>
+        <v>5.173472005940539</v>
       </c>
       <c r="C18">
-        <v>1.387816967197864</v>
+        <v>1.387816967198034</v>
       </c>
       <c r="D18">
-        <v>0.03077916898688926</v>
+        <v>0.03077916898686794</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8876052744788865</v>
+        <v>0.8876052744788723</v>
       </c>
       <c r="G18">
-        <v>0.5760494088127359</v>
+        <v>0.5760494088127075</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.1266825738021</v>
+        <v>5.126682573802157</v>
       </c>
       <c r="C19">
-        <v>1.37564593558028</v>
+        <v>1.375645935580508</v>
       </c>
       <c r="D19">
         <v>0.03061232572555639</v>
@@ -1073,7 +1073,7 @@
         <v>0.8798350022149179</v>
       </c>
       <c r="G19">
-        <v>0.5711804501650874</v>
+        <v>0.5711804501650803</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>5.337666176301241</v>
       </c>
       <c r="C20">
-        <v>1.430513539026606</v>
+        <v>1.430513539026663</v>
       </c>
       <c r="D20">
-        <v>0.03137035753493933</v>
+        <v>0.03137035753483985</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9151989296888843</v>
+        <v>0.9151989296888701</v>
       </c>
       <c r="G20">
-        <v>0.5934107899840484</v>
+        <v>0.5934107899840271</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.054826002563289</v>
+        <v>6.054826002563118</v>
       </c>
       <c r="C21">
-        <v>1.616757417169765</v>
+        <v>1.616757417169424</v>
       </c>
       <c r="D21">
-        <v>0.03405502498996071</v>
+        <v>0.03405502499013124</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.530786692831668</v>
+        <v>6.530786692831555</v>
       </c>
       <c r="C22">
-        <v>1.740160411127533</v>
+        <v>1.740160411127363</v>
       </c>
       <c r="D22">
         <v>0.03592744613972343</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.276019717645056</v>
+        <v>6.27601971764517</v>
       </c>
       <c r="C23">
-        <v>1.674125623839245</v>
+        <v>1.674125623839529</v>
       </c>
       <c r="D23">
-        <v>0.03491627030233957</v>
+        <v>0.03491627030227562</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.08231689697115</v>
+        <v>1.082316896971165</v>
       </c>
       <c r="G23">
-        <v>0.7005885139649806</v>
+        <v>0.7005885139649877</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.326051382626474</v>
+        <v>5.326051382626417</v>
       </c>
       <c r="C24">
-        <v>1.427493978670952</v>
+        <v>1.427493978670725</v>
       </c>
       <c r="D24">
-        <v>0.03132824741625484</v>
+        <v>0.03132824741624063</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9132304282439776</v>
+        <v>0.913230428244006</v>
       </c>
       <c r="G24">
-        <v>0.5921686877950236</v>
+        <v>0.5921686877950378</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>4.325798155370308</v>
       </c>
       <c r="C25">
-        <v>1.16701854525769</v>
+        <v>1.16701854525752</v>
       </c>
       <c r="D25">
-        <v>0.02787073954079489</v>
+        <v>0.02787073954078778</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7534573081245526</v>
+        <v>0.7534573081245384</v>
       </c>
       <c r="G25">
         <v>0.4934238524520111</v>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.60378154449586</v>
+        <v>3.60371800897201</v>
       </c>
       <c r="C2">
-        <v>0.9783899098389384</v>
+        <v>0.9783594074581856</v>
       </c>
       <c r="D2">
-        <v>0.02559331991369973</v>
+        <v>0.02567246330804096</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6510045428221787</v>
+        <v>0.6498144535640904</v>
       </c>
       <c r="G2">
-        <v>0.4329875792933109</v>
+        <v>0.1343159430935401</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3020129864116257</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,31 +447,34 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.120699484199463</v>
+        <v>3.120675133205452</v>
       </c>
       <c r="C3">
-        <v>0.8518391583313303</v>
+        <v>0.8518267087393951</v>
       </c>
       <c r="D3">
-        <v>0.02418179092064321</v>
+        <v>0.02424915393395466</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.589226921484105</v>
+        <v>0.5881618656195968</v>
       </c>
       <c r="G3">
-        <v>0.3982401566068461</v>
+        <v>0.1199028149991221</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.281835835550055</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,31 +488,34 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.826355881920847</v>
+        <v>2.826351379259279</v>
       </c>
       <c r="C4">
-        <v>0.7745733170743279</v>
+        <v>0.7745709062669448</v>
       </c>
       <c r="D4">
-        <v>0.02337023010714745</v>
+        <v>0.02343014562708845</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5545412012445965</v>
+        <v>0.5535494733822546</v>
       </c>
       <c r="G4">
-        <v>0.3795484122318982</v>
+        <v>0.1118922540485414</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2712465276089446</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -520,31 +529,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.706872158199189</v>
+        <v>2.70687482249582</v>
       </c>
       <c r="C5">
-        <v>0.7431705936855622</v>
+        <v>0.7431720503253416</v>
       </c>
       <c r="D5">
-        <v>0.0230520637812397</v>
+        <v>0.02310889326275145</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5411505377447341</v>
+        <v>0.5401879359449069</v>
       </c>
       <c r="G5">
-        <v>0.3725388356947619</v>
+        <v>0.1088193549234688</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2673462742930681</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -558,31 +570,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.687057012707783</v>
+        <v>2.687060815178313</v>
       </c>
       <c r="C6">
-        <v>0.7379605319584641</v>
+        <v>0.7379626183698917</v>
       </c>
       <c r="D6">
-        <v>0.0229999548756652</v>
+        <v>0.02305626891078916</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5389699594270354</v>
+        <v>0.5380121513519356</v>
       </c>
       <c r="G6">
-        <v>0.371409999202541</v>
+        <v>0.1083201232934243</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2667226602166082</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,31 +611,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.82474274061758</v>
+        <v>2.824738338171358</v>
       </c>
       <c r="C7">
-        <v>0.774149502811099</v>
+        <v>0.7741471450170252</v>
       </c>
       <c r="D7">
-        <v>0.02336589001616218</v>
+        <v>0.02342576412047492</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5543576888871442</v>
+        <v>0.5533663567514964</v>
       </c>
       <c r="G7">
-        <v>0.3794514915047671</v>
+        <v>0.111850061353671</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2711922947379009</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -634,31 +652,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.436676001453804</v>
+        <v>3.436626938146674</v>
       </c>
       <c r="C8">
-        <v>0.934648075649136</v>
+        <v>0.934624039994759</v>
       </c>
       <c r="D8">
-        <v>0.02509435044959574</v>
+        <v>0.02516947819099258</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6289846993961703</v>
+        <v>0.6278385062085121</v>
       </c>
       <c r="G8">
-        <v>0.420422194988582</v>
+        <v>0.1291598841189483</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2946588921497266</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -672,31 +693,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.660084287608129</v>
+        <v>4.659907181260905</v>
       </c>
       <c r="C9">
-        <v>1.254169964856487</v>
+        <v>1.254093098543422</v>
       </c>
       <c r="D9">
-        <v>0.02898848325374814</v>
+        <v>0.02909168345384927</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8046551424871637</v>
+        <v>0.8031722959368039</v>
       </c>
       <c r="G9">
-        <v>0.524571666974424</v>
+        <v>0.1707301897482836</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3568132036253431</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -710,31 +734,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.581630641427182</v>
+        <v>5.581323403740384</v>
       </c>
       <c r="C10">
-        <v>1.493913731176406</v>
+        <v>1.493788493695831</v>
       </c>
       <c r="D10">
-        <v>0.03226501853602315</v>
+        <v>0.03238749822132547</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9571226697784994</v>
+        <v>0.9553632461150556</v>
       </c>
       <c r="G10">
-        <v>0.619987056433672</v>
+        <v>0.2074180477377041</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4151902749913461</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -748,31 +775,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.007955732084213</v>
+        <v>6.007578373234026</v>
       </c>
       <c r="C11">
-        <v>1.604596906648453</v>
+        <v>1.604446704357031</v>
       </c>
       <c r="D11">
-        <v>0.03387452712652106</v>
+        <v>0.03400542442219034</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.032974708307535</v>
+        <v>1.03108063966063</v>
       </c>
       <c r="G11">
-        <v>0.6686173953775238</v>
+        <v>0.2258253387312621</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4452424980090868</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -786,31 +816,34 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.170621082262812</v>
+        <v>6.170215286743769</v>
       </c>
       <c r="C12">
-        <v>1.646793916589615</v>
+        <v>1.646633745720862</v>
       </c>
       <c r="D12">
-        <v>0.03450394975622117</v>
+        <v>0.03463797759086873</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.062766574075525</v>
+        <v>1.060820000057703</v>
       </c>
       <c r="G12">
-        <v>0.6878912979340797</v>
+        <v>0.2330793889178295</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4571957200729599</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -824,31 +857,34 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.135530186117705</v>
+        <v>6.135130604261349</v>
       </c>
       <c r="C13">
-        <v>1.637692545842299</v>
+        <v>1.637534546373217</v>
       </c>
       <c r="D13">
-        <v>0.03436745610374459</v>
+        <v>0.03450081236949387</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.056300522241386</v>
+        <v>1.054365328135674</v>
       </c>
       <c r="G13">
-        <v>0.6837002744635683</v>
+        <v>0.2315038529789817</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4545946743113092</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -862,31 +898,34 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.021312497780571</v>
+        <v>6.020932839155023</v>
       </c>
       <c r="C14">
-        <v>1.60806248261224</v>
+        <v>1.607911471086368</v>
       </c>
       <c r="D14">
-        <v>0.03392589285397207</v>
+        <v>0.03405704888408678</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.035403460456536</v>
+        <v>1.033505104164533</v>
       </c>
       <c r="G14">
-        <v>0.6701851992234538</v>
+        <v>0.2264162236375</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4462139760736861</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -900,31 +939,34 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.951516893626888</v>
+        <v>5.951149183106452</v>
       </c>
       <c r="C15">
-        <v>1.589951764410898</v>
+        <v>1.589804963233405</v>
       </c>
       <c r="D15">
-        <v>0.03365810998155894</v>
+        <v>0.03378791067096643</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.022746818809665</v>
+        <v>1.020870820923534</v>
       </c>
       <c r="G15">
-        <v>0.6620220621201156</v>
+        <v>0.2233380031554333</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.441157430948536</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -938,31 +980,34 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.553929134961948</v>
+        <v>5.553626234515946</v>
       </c>
       <c r="C16">
-        <v>1.486717136588652</v>
+        <v>1.486593463752001</v>
       </c>
       <c r="D16">
-        <v>0.03216246001976231</v>
+        <v>0.03228438198258488</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9523073571338756</v>
+        <v>0.9505565348549965</v>
       </c>
       <c r="G16">
-        <v>0.6169229621745984</v>
+        <v>0.2062526791753854</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4133024588340675</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -976,31 +1021,34 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.311979463678597</v>
+        <v>5.311713317963836</v>
       </c>
       <c r="C17">
-        <v>1.423835481399465</v>
+        <v>1.423725179850237</v>
       </c>
       <c r="D17">
-        <v>0.03127728795982421</v>
+        <v>0.03139428208501016</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9108488542340609</v>
+        <v>0.9091723975798089</v>
       </c>
       <c r="G17">
-        <v>0.5906666587560849</v>
+        <v>0.1962359871210069</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.397157147198385</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1014,31 +1062,34 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.173472005940539</v>
+        <v>5.173225993902463</v>
       </c>
       <c r="C18">
-        <v>1.387816967198034</v>
+        <v>1.387714083941944</v>
       </c>
       <c r="D18">
-        <v>0.03077916898686794</v>
+        <v>0.03089329598571311</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8876052744788723</v>
+        <v>0.885970777078299</v>
       </c>
       <c r="G18">
-        <v>0.5760494088127075</v>
+        <v>0.190633896322197</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3881951745176906</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1052,31 +1103,34 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.126682573802157</v>
+        <v>5.126443214471806</v>
       </c>
       <c r="C19">
-        <v>1.375645935580508</v>
+        <v>1.375545519707998</v>
       </c>
       <c r="D19">
-        <v>0.03061232572555639</v>
+        <v>0.03072547651217405</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8798350022149179</v>
+        <v>0.8782145786312867</v>
       </c>
       <c r="G19">
-        <v>0.5711804501650803</v>
+        <v>0.1887634332644268</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3852145147365107</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1090,31 +1144,34 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.337666176301241</v>
+        <v>5.337396224267025</v>
       </c>
       <c r="C20">
-        <v>1.430513539026663</v>
+        <v>1.430401842884748</v>
       </c>
       <c r="D20">
-        <v>0.03137035753483985</v>
+        <v>0.0314878796697613</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9151989296888701</v>
+        <v>0.913514642592034</v>
       </c>
       <c r="G20">
-        <v>0.5934107899840271</v>
+        <v>0.1972855491777636</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3988417889579239</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1128,31 +1185,34 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.054826002563118</v>
+        <v>6.05444054587241</v>
       </c>
       <c r="C21">
-        <v>1.616757417169424</v>
+        <v>1.616604367877528</v>
       </c>
       <c r="D21">
-        <v>0.03405502499013124</v>
+        <v>0.03418682888635516</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.041511282582647</v>
+        <v>1.039602149529216</v>
       </c>
       <c r="G21">
-        <v>0.6741306781673373</v>
+        <v>0.2279025718273857</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4486594312827137</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1166,31 +1226,34 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.530786692831555</v>
+        <v>6.530314583761196</v>
       </c>
       <c r="C22">
-        <v>1.740160411127363</v>
+        <v>1.739977280615449</v>
       </c>
       <c r="D22">
-        <v>0.03592744613972343</v>
+        <v>0.0360682478028167</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.13036607617633</v>
+        <v>1.128300996147033</v>
       </c>
       <c r="G22">
-        <v>0.7319507246310692</v>
+        <v>0.24958614479754</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4845979950694144</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1204,31 +1267,34 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.27601971764517</v>
+        <v>6.275594995907568</v>
       </c>
       <c r="C23">
-        <v>1.674125623839529</v>
+        <v>1.673958861361541</v>
       </c>
       <c r="D23">
-        <v>0.03491627030227562</v>
+        <v>0.03505230283993654</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.082316896971165</v>
+        <v>1.080335965694047</v>
       </c>
       <c r="G23">
-        <v>0.7005885139649877</v>
+        <v>0.2378467348612148</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4650819878249095</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1242,31 +1308,34 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.326051382626417</v>
+        <v>5.325783154511896</v>
       </c>
       <c r="C24">
-        <v>1.427493978670725</v>
+        <v>1.427382913855695</v>
       </c>
       <c r="D24">
-        <v>0.03132824741624063</v>
+        <v>0.03144553094364966</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.913230428244006</v>
+        <v>0.9115496837467845</v>
       </c>
       <c r="G24">
-        <v>0.5921686877950378</v>
+        <v>0.1968105569826193</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3980791703255946</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1280,31 +1349,34 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.325798155370308</v>
+        <v>4.325661095445923</v>
       </c>
       <c r="C25">
-        <v>1.16701854525752</v>
+        <v>1.166957384432521</v>
       </c>
       <c r="D25">
-        <v>0.02787073954078778</v>
+        <v>0.02796656345562099</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7534573081245384</v>
+        <v>0.7520699287196635</v>
       </c>
       <c r="G25">
-        <v>0.4934238524520111</v>
+        <v>0.1585230915914408</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3379932214494801</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.60371800897201</v>
+        <v>3.496383289435585</v>
       </c>
       <c r="C2">
-        <v>0.9783594074581856</v>
+        <v>0.9265185761339865</v>
       </c>
       <c r="D2">
-        <v>0.02567246330804096</v>
+        <v>0.005918222200977041</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6498144535640904</v>
+        <v>6.661363312025458</v>
       </c>
       <c r="G2">
-        <v>0.1343159430935401</v>
+        <v>0.0007904138016414508</v>
       </c>
       <c r="H2">
-        <v>0.3020129864116257</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4429820086044458</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.120675133205452</v>
+        <v>3.005347180623687</v>
       </c>
       <c r="C3">
-        <v>0.8518267087393951</v>
+        <v>0.7915674753670316</v>
       </c>
       <c r="D3">
-        <v>0.02424915393395466</v>
+        <v>0.004556553776179584</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5881618656195968</v>
+        <v>5.896244573364129</v>
       </c>
       <c r="G3">
-        <v>0.1199028149991221</v>
+        <v>0.0008031961352421938</v>
       </c>
       <c r="H3">
-        <v>0.281835835550055</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.387686087850426</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.826351379259279</v>
+        <v>2.712774749216976</v>
       </c>
       <c r="C4">
-        <v>0.7745709062669448</v>
+        <v>0.7112611724612634</v>
       </c>
       <c r="D4">
-        <v>0.02343014562708845</v>
+        <v>0.003825358832123982</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5535494733822546</v>
+        <v>5.44278072428807</v>
       </c>
       <c r="G4">
-        <v>0.1118922540485414</v>
+        <v>0.0008111724660763485</v>
       </c>
       <c r="H4">
-        <v>0.2712465276089446</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3549740051114441</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.70687482249582</v>
+        <v>2.595459730966581</v>
       </c>
       <c r="C5">
-        <v>0.7431720503253416</v>
+        <v>0.6790769842284874</v>
       </c>
       <c r="D5">
-        <v>0.02310889326275145</v>
+        <v>0.003549940453659417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5401879359449069</v>
+        <v>5.261500621668119</v>
       </c>
       <c r="G5">
-        <v>0.1088193549234688</v>
+        <v>0.0008144598916535721</v>
       </c>
       <c r="H5">
-        <v>0.2673462742930681</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3419117861341476</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.687060815178313</v>
+        <v>2.57608608744016</v>
       </c>
       <c r="C6">
-        <v>0.7379626183698917</v>
+        <v>0.673762810305675</v>
       </c>
       <c r="D6">
-        <v>0.02305626891078916</v>
+        <v>0.00350546790924966</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5380121513519356</v>
+        <v>5.231595187357613</v>
       </c>
       <c r="G6">
-        <v>0.1083201232934243</v>
+        <v>0.0008150081317765852</v>
       </c>
       <c r="H6">
-        <v>0.2667226602166082</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.339757844312885</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.824738338171358</v>
+        <v>2.711185272592729</v>
       </c>
       <c r="C7">
-        <v>0.7741471450170252</v>
+        <v>0.7108250575783472</v>
       </c>
       <c r="D7">
-        <v>0.02342576412047492</v>
+        <v>0.003821557795976815</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5533663567514964</v>
+        <v>5.440322438055176</v>
       </c>
       <c r="G7">
-        <v>0.111850061353671</v>
+        <v>0.000811216645529736</v>
       </c>
       <c r="H7">
-        <v>0.2711922947379009</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3547968110238031</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.436626938146674</v>
+        <v>3.325006526257823</v>
       </c>
       <c r="C8">
-        <v>0.934624039994759</v>
+        <v>0.8793921199591068</v>
       </c>
       <c r="D8">
-        <v>0.02516947819099258</v>
+        <v>0.005424468101249857</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6278385062085121</v>
+        <v>6.393780815976868</v>
       </c>
       <c r="G8">
-        <v>0.1291598841189483</v>
+        <v>0.0007947977051829772</v>
       </c>
       <c r="H8">
-        <v>0.2946588921497266</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4236306019648168</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.659907181260905</v>
+        <v>4.617309348510389</v>
       </c>
       <c r="C9">
-        <v>1.254093098543422</v>
+        <v>1.235628498938581</v>
       </c>
       <c r="D9">
-        <v>0.02909168345384927</v>
+        <v>0.009608188854276278</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8031722959368039</v>
+        <v>8.424504692948943</v>
       </c>
       <c r="G9">
-        <v>0.1707301897482836</v>
+        <v>0.0007633594476632991</v>
       </c>
       <c r="H9">
-        <v>0.3568132036253431</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5707707725809854</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.581323403740384</v>
+        <v>5.650992456238441</v>
       </c>
       <c r="C10">
-        <v>1.493788493695831</v>
+        <v>1.522269726275226</v>
       </c>
       <c r="D10">
-        <v>0.03238749822132547</v>
+        <v>0.01368060774379387</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9553632461150556</v>
+        <v>10.06786203863524</v>
       </c>
       <c r="G10">
-        <v>0.2074180477377041</v>
+        <v>0.0007402929897000706</v>
       </c>
       <c r="H10">
-        <v>0.4151902749913461</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6902322030588692</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.007578373234026</v>
+        <v>6.148350800119204</v>
       </c>
       <c r="C11">
-        <v>1.604446704357031</v>
+        <v>1.660810477520386</v>
       </c>
       <c r="D11">
-        <v>0.03400542442219034</v>
+        <v>0.01586079119887884</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.03108063966063</v>
+        <v>10.86379895291105</v>
       </c>
       <c r="G11">
-        <v>0.2258253387312621</v>
+        <v>0.0007296812355789941</v>
       </c>
       <c r="H11">
-        <v>0.4452424980090868</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7481989714888613</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.170215286743769</v>
+        <v>6.341545832580721</v>
       </c>
       <c r="C12">
-        <v>1.646633745720862</v>
+        <v>1.714742489904324</v>
       </c>
       <c r="D12">
-        <v>0.03463797759086873</v>
+        <v>0.01674590837023615</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.060820000057703</v>
+        <v>11.17382622812391</v>
       </c>
       <c r="G12">
-        <v>0.2330793889178295</v>
+        <v>0.0007256322813662637</v>
       </c>
       <c r="H12">
-        <v>0.4571957200729599</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.770796075616019</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.135130604261349</v>
+        <v>6.29970409873232</v>
       </c>
       <c r="C13">
-        <v>1.637534546373217</v>
+        <v>1.703056337222336</v>
       </c>
       <c r="D13">
-        <v>0.03450081236949387</v>
+        <v>0.01655240042127559</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.054365328135674</v>
+        <v>11.10664183672418</v>
       </c>
       <c r="G13">
-        <v>0.2315038529789817</v>
+        <v>0.0007265059027745244</v>
       </c>
       <c r="H13">
-        <v>0.4545946743113092</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7658983062000431</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.020932839155023</v>
+        <v>6.164141440101162</v>
       </c>
       <c r="C14">
-        <v>1.607911471086368</v>
+        <v>1.665216065637651</v>
       </c>
       <c r="D14">
-        <v>0.03405704888408678</v>
+        <v>0.01593233402952876</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.033505104164533</v>
+        <v>10.88912126145317</v>
       </c>
       <c r="G14">
-        <v>0.2264162236375</v>
+        <v>0.0007293488258544196</v>
       </c>
       <c r="H14">
-        <v>0.4462139760736861</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.750044266414335</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.951149183106452</v>
+        <v>6.081770114876008</v>
       </c>
       <c r="C15">
-        <v>1.589804963233405</v>
+        <v>1.642239319859698</v>
       </c>
       <c r="D15">
-        <v>0.03378791067096643</v>
+        <v>0.0155607036826062</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.020870820923534</v>
+        <v>10.7570629685776</v>
       </c>
       <c r="G15">
-        <v>0.2233380031554333</v>
+        <v>0.0007310857709224963</v>
       </c>
       <c r="H15">
-        <v>0.441157430948536</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7404216262752215</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.553626234515946</v>
+        <v>5.619111422968956</v>
       </c>
       <c r="C16">
-        <v>1.486593463752001</v>
+        <v>1.513403551476472</v>
       </c>
       <c r="D16">
-        <v>0.03228438198258488</v>
+        <v>0.0135457086139823</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9505565348549965</v>
+        <v>10.01695280909112</v>
       </c>
       <c r="G16">
-        <v>0.2062526791753854</v>
+        <v>0.0007409830251415107</v>
       </c>
       <c r="H16">
-        <v>0.4133024588340675</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6865268906020532</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.311713317963836</v>
+        <v>5.342845773014744</v>
       </c>
       <c r="C17">
-        <v>1.423725179850237</v>
+        <v>1.436643843743013</v>
       </c>
       <c r="D17">
-        <v>0.03139428208501016</v>
+        <v>0.01240134450081598</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9091723975798089</v>
+        <v>9.576376856223334</v>
       </c>
       <c r="G17">
-        <v>0.1962359871210069</v>
+        <v>0.0007470156425236045</v>
       </c>
       <c r="H17">
-        <v>0.397157147198385</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6544724118999312</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.173225993902463</v>
+        <v>5.186430258787539</v>
       </c>
       <c r="C18">
-        <v>1.387714083941944</v>
+        <v>1.393238968184164</v>
       </c>
       <c r="D18">
-        <v>0.03089329598571311</v>
+        <v>0.01177306843065296</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.885970777078299</v>
+        <v>9.327402166347298</v>
       </c>
       <c r="G18">
-        <v>0.190633896322197</v>
+        <v>0.0007504752333882972</v>
       </c>
       <c r="H18">
-        <v>0.3881951745176906</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6363675522450052</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.126443214471806</v>
+        <v>5.133871922867513</v>
       </c>
       <c r="C19">
-        <v>1.375545519707998</v>
+        <v>1.378662873462076</v>
       </c>
       <c r="D19">
-        <v>0.03072547651217405</v>
+        <v>0.01156515834096439</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8782145786312867</v>
+        <v>9.243820238672555</v>
       </c>
       <c r="G19">
-        <v>0.1887634332644268</v>
+        <v>0.0007516451981631665</v>
       </c>
       <c r="H19">
-        <v>0.3852145147365107</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6302912323543097</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.337396224267025</v>
+        <v>5.371991307783389</v>
       </c>
       <c r="C20">
-        <v>1.430401842884748</v>
+        <v>1.444735979655491</v>
       </c>
       <c r="D20">
-        <v>0.0314878796697613</v>
+        <v>0.01251998645330943</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.913514642592034</v>
+        <v>9.62280726273886</v>
       </c>
       <c r="G20">
-        <v>0.1972855491777636</v>
+        <v>0.000746374604582763</v>
       </c>
       <c r="H20">
-        <v>0.3988417889579239</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6578494879740475</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.05444054587241</v>
+        <v>6.203818906520951</v>
       </c>
       <c r="C21">
-        <v>1.616604367877528</v>
+        <v>1.676288033199341</v>
       </c>
       <c r="D21">
-        <v>0.03418682888635516</v>
+        <v>0.01611273110179923</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.039602149529216</v>
+        <v>10.95276298640056</v>
       </c>
       <c r="G21">
-        <v>0.2279025718273857</v>
+        <v>0.0007285147418531673</v>
       </c>
       <c r="H21">
-        <v>0.4486594312827137</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7546822872108834</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.530314583761196</v>
+        <v>6.776399919330402</v>
       </c>
       <c r="C22">
-        <v>1.739977280615449</v>
+        <v>1.83638477448676</v>
       </c>
       <c r="D22">
-        <v>0.0360682478028167</v>
+        <v>0.01881623028343427</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.128300996147033</v>
+        <v>11.87332162144702</v>
       </c>
       <c r="G22">
-        <v>0.24958614479754</v>
+        <v>0.000716655627642681</v>
       </c>
       <c r="H22">
-        <v>0.4845979950694144</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8218181612685242</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.275594995907568</v>
+        <v>6.467774600052735</v>
       </c>
       <c r="C23">
-        <v>1.673958861361541</v>
+        <v>1.750016698256331</v>
       </c>
       <c r="D23">
-        <v>0.03505230283993654</v>
+        <v>0.01733574988264763</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.080335965694047</v>
+        <v>11.37663948647707</v>
       </c>
       <c r="G23">
-        <v>0.2378467348612148</v>
+        <v>0.0007230074869914831</v>
       </c>
       <c r="H23">
-        <v>0.4650819878249095</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7855841606613296</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.325783154511896</v>
+        <v>5.358807163513518</v>
       </c>
       <c r="C24">
-        <v>1.427382913855695</v>
+        <v>1.441075287321382</v>
       </c>
       <c r="D24">
-        <v>0.03144553094364966</v>
+        <v>0.01246625701300985</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9115496837467845</v>
+        <v>9.601802745808669</v>
       </c>
       <c r="G24">
-        <v>0.1968105569826193</v>
+        <v>0.0007466644435811802</v>
       </c>
       <c r="H24">
-        <v>0.3980791703255946</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6563217127014553</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.325661095445923</v>
+        <v>4.255445708126274</v>
       </c>
       <c r="C25">
-        <v>1.166957384432521</v>
+        <v>1.135660897224795</v>
       </c>
       <c r="D25">
-        <v>0.02796656345562099</v>
+        <v>0.008332095234742098</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7520699287196635</v>
+        <v>7.85300139317502</v>
       </c>
       <c r="G25">
-        <v>0.1585230915914408</v>
+        <v>0.0007718228537090363</v>
       </c>
       <c r="H25">
-        <v>0.3379932214494801</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5293016762849163</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.496383289435585</v>
+        <v>0.8768749288714162</v>
       </c>
       <c r="C2">
-        <v>0.9265185761339865</v>
+        <v>0.1727586566096022</v>
       </c>
       <c r="D2">
-        <v>0.005918222200977041</v>
+        <v>0.1655457958196109</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.661363312025458</v>
+        <v>1.032903098662075</v>
       </c>
       <c r="G2">
-        <v>0.0007904138016414508</v>
+        <v>0.6847856141371551</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5039356309790719</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4441447160185206</v>
       </c>
       <c r="J2">
-        <v>0.4429820086044458</v>
+        <v>0.187904178483258</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.008952129390508</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.425363701301201</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9664275255385419</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.005347180623687</v>
+        <v>0.7607783139640958</v>
       </c>
       <c r="C3">
-        <v>0.7915674753670316</v>
+        <v>0.1496391841066469</v>
       </c>
       <c r="D3">
-        <v>0.004556553776179584</v>
+        <v>0.14779632012511</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.896244573364129</v>
+        <v>0.9883061510718747</v>
       </c>
       <c r="G3">
-        <v>0.0008031961352421938</v>
+        <v>0.656482738297683</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4976507798334922</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4401907068118618</v>
       </c>
       <c r="J3">
-        <v>0.387686087850426</v>
+        <v>0.1740885141248754</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.875053674217753</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3728353056091933</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.011954933484624</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712774749216976</v>
+        <v>0.689822973929239</v>
       </c>
       <c r="C4">
-        <v>0.7112611724612634</v>
+        <v>0.1355460124434842</v>
       </c>
       <c r="D4">
-        <v>0.003825358832123982</v>
+        <v>0.1370206646978431</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.44278072428807</v>
+        <v>0.9626332851149186</v>
       </c>
       <c r="G4">
-        <v>0.0008111724660763485</v>
+        <v>0.640425458485268</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4945729734949396</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4385625280853098</v>
       </c>
       <c r="J4">
-        <v>0.3549740051114441</v>
+        <v>0.1658683735410804</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7932651413105418</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3408989954217958</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.041162749435959</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.595459730966581</v>
+        <v>0.6609767738362962</v>
       </c>
       <c r="C5">
-        <v>0.6790769842284874</v>
+        <v>0.1298247429402295</v>
       </c>
       <c r="D5">
-        <v>0.003549940453659417</v>
+        <v>0.1326579296721491</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.261500621668119</v>
+        <v>0.952579410890749</v>
       </c>
       <c r="G5">
-        <v>0.0008144598916535721</v>
+        <v>0.6341962555314069</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4935071520425538</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4380914811937942</v>
       </c>
       <c r="J5">
-        <v>0.3419117861341476</v>
+        <v>0.1625805883149241</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7600252257268494</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3279560731468649</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.05337256076746</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.57608608744016</v>
+        <v>0.6561906401239526</v>
       </c>
       <c r="C6">
-        <v>0.673762810305675</v>
+        <v>0.1288759380068427</v>
       </c>
       <c r="D6">
-        <v>0.00350546790924966</v>
+        <v>0.1319351504462105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.231595187357613</v>
+        <v>0.9509339971406305</v>
       </c>
       <c r="G6">
-        <v>0.0008150081317765852</v>
+        <v>0.6331803777443383</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4933413265309952</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4380246441245852</v>
       </c>
       <c r="J6">
-        <v>0.339757844312885</v>
+        <v>0.1620382829106006</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7545106813455504</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3258109919209673</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.055418333432431</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711185272592729</v>
+        <v>0.6894336837496269</v>
       </c>
       <c r="C7">
-        <v>0.7108250575783472</v>
+        <v>0.1354687700839037</v>
       </c>
       <c r="D7">
-        <v>0.003821557795976815</v>
+        <v>0.13696171528143</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.440322438055176</v>
+        <v>0.9624960711083972</v>
       </c>
       <c r="G7">
-        <v>0.000811216645529736</v>
+        <v>0.6403401997325773</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.494557846864538</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.438555407225568</v>
       </c>
       <c r="J7">
-        <v>0.3547968110238031</v>
+        <v>0.1658237875620685</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7928165158680827</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3407241640846834</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.041326180727324</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.325006526257823</v>
+        <v>0.8367679971438804</v>
       </c>
       <c r="C8">
-        <v>0.8793921199591068</v>
+        <v>0.1647634061436634</v>
       </c>
       <c r="D8">
-        <v>0.005424468101249857</v>
+        <v>0.1593988457894255</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.393780815976868</v>
+        <v>1.017157623420687</v>
       </c>
       <c r="G8">
-        <v>0.0007947977051829772</v>
+        <v>0.6747416004997433</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5016015368032214</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4426100892871929</v>
       </c>
       <c r="J8">
-        <v>0.4236306019648168</v>
+        <v>0.1830834813210203</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9626847443844611</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4071811887550467</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9818602775293641</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.617309348510389</v>
+        <v>1.128976786058303</v>
       </c>
       <c r="C9">
-        <v>1.235628498938581</v>
+        <v>0.2232122084466965</v>
       </c>
       <c r="D9">
-        <v>0.009608188854276278</v>
+        <v>0.2044873464520975</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.424504692948943</v>
+        <v>1.138969686957097</v>
       </c>
       <c r="G9">
-        <v>0.0007633594476632991</v>
+        <v>0.7535400755427304</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5219965548858454</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4573182940557032</v>
       </c>
       <c r="J9">
-        <v>0.5707707725809854</v>
+        <v>0.2192110851487072</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.300026341582253</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.5404101925908265</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.8755699835945236</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.650992456238441</v>
+        <v>1.346694422772373</v>
       </c>
       <c r="C10">
-        <v>1.522269726275226</v>
+        <v>0.2670532179312204</v>
       </c>
       <c r="D10">
-        <v>0.01368060774379387</v>
+        <v>0.2384533700362255</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.06786203863524</v>
+        <v>1.238947258552585</v>
       </c>
       <c r="G10">
-        <v>0.0007402929897000706</v>
+        <v>0.8196199820539078</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5415654206030922</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4728553129590409</v>
       </c>
       <c r="J10">
-        <v>0.6902322030588692</v>
+        <v>0.2474385998201711</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.551738537454696</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.6406626942345426</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.8043201782999851</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.148350800119204</v>
+        <v>1.446645511758419</v>
       </c>
       <c r="C11">
-        <v>1.660810477520386</v>
+        <v>0.2872624702436042</v>
       </c>
       <c r="D11">
-        <v>0.01586079119887884</v>
+        <v>0.2541296759434317</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.86379895291105</v>
+        <v>1.287081939709708</v>
       </c>
       <c r="G11">
-        <v>0.0007296812355789941</v>
+        <v>0.8517649442100037</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5516006373218261</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4810972715362496</v>
       </c>
       <c r="J11">
-        <v>0.7481989714888613</v>
+        <v>0.2607163164083062</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.667399078343493</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.6869280506564763</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7735241947169342</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.341545832580721</v>
+        <v>1.484647179900747</v>
       </c>
       <c r="C12">
-        <v>1.714742489904324</v>
+        <v>0.2949596629139251</v>
       </c>
       <c r="D12">
-        <v>0.01674590837023615</v>
+        <v>0.2601019455393327</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.17382622812391</v>
+        <v>1.305724803000047</v>
       </c>
       <c r="G12">
-        <v>0.0007256322813662637</v>
+        <v>0.8642647606380081</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5555760692894296</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4844003355159501</v>
       </c>
       <c r="J12">
-        <v>0.770796075616019</v>
+        <v>0.2658133838236125</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.711390439886145</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7045552024727826</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7621070365010745</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.29970409873232</v>
+        <v>1.476455704706126</v>
       </c>
       <c r="C13">
-        <v>1.703056337222336</v>
+        <v>0.2932998568093979</v>
       </c>
       <c r="D13">
-        <v>0.01655240042127559</v>
+        <v>0.2588140487803088</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.10664183672418</v>
+        <v>1.301690695264469</v>
       </c>
       <c r="G13">
-        <v>0.0007265059027745244</v>
+        <v>0.8615576892536012</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5547118847644299</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4836806458705283</v>
       </c>
       <c r="J13">
-        <v>0.7658983062000431</v>
+        <v>0.2647124617162007</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.701907065145662</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.7007538899363155</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7645548414959897</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.164141440101162</v>
+        <v>1.449768749421679</v>
       </c>
       <c r="C14">
-        <v>1.665216065637651</v>
+        <v>0.2878947961398808</v>
       </c>
       <c r="D14">
-        <v>0.01593233402952876</v>
+        <v>0.2546202749972366</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.88912126145317</v>
+        <v>1.288607174286213</v>
       </c>
       <c r="G14">
-        <v>0.0007293488258544196</v>
+        <v>0.8527865891524016</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.5519241107776054</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4813652897109577</v>
       </c>
       <c r="J14">
-        <v>0.750044266414335</v>
+        <v>0.2611342330682191</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.67101423886723</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.6883760178623319</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7725799223368774</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.081770114876008</v>
+        <v>1.433442726090277</v>
       </c>
       <c r="C15">
-        <v>1.642239319859698</v>
+        <v>0.2845900128934318</v>
       </c>
       <c r="D15">
-        <v>0.0155607036826062</v>
+        <v>0.2520562674036171</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.7570629685776</v>
+        <v>1.280648266087368</v>
       </c>
       <c r="G15">
-        <v>0.0007310857709224963</v>
+        <v>0.8474574999876836</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.5502397326777952</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.479971178949441</v>
       </c>
       <c r="J15">
-        <v>0.7404216262752215</v>
+        <v>0.258951655591261</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.652117494507479</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.6808085983245107</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7775277513423831</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.619111422968956</v>
+        <v>1.340182498173135</v>
       </c>
       <c r="C16">
-        <v>1.513403551476472</v>
+        <v>0.2657383595492036</v>
       </c>
       <c r="D16">
-        <v>0.0135457086139823</v>
+        <v>0.2374337190016149</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.01695280909112</v>
+        <v>1.235857772017781</v>
       </c>
       <c r="G16">
-        <v>0.0007409830251415107</v>
+        <v>0.8175634823552969</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5409334339133522</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4723414115248019</v>
       </c>
       <c r="J16">
-        <v>0.6865268906020532</v>
+        <v>0.246580185363257</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.544205365545054</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.6376534768787181</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8063663102713683</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.342845773014744</v>
+        <v>1.283218265658576</v>
       </c>
       <c r="C17">
-        <v>1.436643843743013</v>
+        <v>0.2542457812083541</v>
       </c>
       <c r="D17">
-        <v>0.01240134450081598</v>
+        <v>0.2285233909646962</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.576376856223334</v>
+        <v>1.209083226728566</v>
       </c>
       <c r="G17">
-        <v>0.0007470156425236045</v>
+        <v>0.7997773152281127</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5355230673554701</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4679705794030795</v>
       </c>
       <c r="J17">
-        <v>0.6544724118999312</v>
+        <v>0.2391068910021374</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.478319304915686</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.6113568841155015</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.8244801299491797</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.186430258787539</v>
+        <v>1.250538242141346</v>
       </c>
       <c r="C18">
-        <v>1.393238968184164</v>
+        <v>0.2476601698901391</v>
       </c>
       <c r="D18">
-        <v>0.01177306843065296</v>
+        <v>0.223419349932783</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.327402166347298</v>
+        <v>1.193930901847182</v>
       </c>
       <c r="G18">
-        <v>0.0007504752333882972</v>
+        <v>0.789741660619697</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.532517039850319</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4655662576361408</v>
       </c>
       <c r="J18">
-        <v>0.6363675522450052</v>
+        <v>0.2348491686081502</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.440530394556049</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.5962930937883897</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8350500306422788</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.133871922867513</v>
+        <v>1.2394871981829</v>
       </c>
       <c r="C19">
-        <v>1.378662873462076</v>
+        <v>0.2454344429651911</v>
       </c>
       <c r="D19">
-        <v>0.01156515834096439</v>
+        <v>0.2216946999194533</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.243820238672555</v>
+        <v>1.188842142212664</v>
       </c>
       <c r="G19">
-        <v>0.0007516451981631665</v>
+        <v>0.7863763605999168</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5315170730765715</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4647706450680076</v>
       </c>
       <c r="J19">
-        <v>0.6302912323543097</v>
+        <v>0.2334143873721644</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.42775330674138</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.5912029168382134</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.8386544469999322</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.371991307783389</v>
+        <v>1.289273330826575</v>
       </c>
       <c r="C20">
-        <v>1.444735979655491</v>
+        <v>0.255466595055708</v>
       </c>
       <c r="D20">
-        <v>0.01251998645330943</v>
+        <v>0.2294697174597786</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.62280726273886</v>
+        <v>1.211907552915051</v>
       </c>
       <c r="G20">
-        <v>0.000746374604582763</v>
+        <v>0.8016503633639616</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5360879662507045</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4684244196725373</v>
       </c>
       <c r="J20">
-        <v>0.6578494879740475</v>
+        <v>0.2398981778543714</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.485321724064733</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.6141497675828234</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8225361370801956</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.203818906520951</v>
+        <v>1.457603040684205</v>
       </c>
       <c r="C21">
-        <v>1.676288033199341</v>
+        <v>0.2894811370714194</v>
       </c>
       <c r="D21">
-        <v>0.01611273110179923</v>
+        <v>0.2558510808320449</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.95276298640056</v>
+        <v>1.292438569657577</v>
       </c>
       <c r="G21">
-        <v>0.0007285147418531673</v>
+        <v>0.8553537643042404</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.5527380863931199</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4820403161273674</v>
       </c>
       <c r="J21">
-        <v>0.7546822872108834</v>
+        <v>0.262183318322883</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.680082740260247</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.6920086774128009</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7702160205713326</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.776399919330402</v>
+        <v>1.568515498125095</v>
       </c>
       <c r="C22">
-        <v>1.83638477448676</v>
+        <v>0.3119735738006</v>
       </c>
       <c r="D22">
-        <v>0.01881623028343427</v>
+        <v>0.2733045080697423</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.87332162144702</v>
+        <v>1.347508448502296</v>
       </c>
       <c r="G22">
-        <v>0.000716655627642681</v>
+        <v>0.8923735906507915</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5646482017280192</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.492006858272056</v>
       </c>
       <c r="J22">
-        <v>0.8218181612685242</v>
+        <v>0.2771538839942451</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.808510728602982</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.7435269119202772</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7374539642701912</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.467774600052735</v>
+        <v>1.509229613315995</v>
       </c>
       <c r="C23">
-        <v>1.750016698256331</v>
+        <v>0.2999427910348516</v>
       </c>
       <c r="D23">
-        <v>0.01733574988264763</v>
+        <v>0.2639686423648442</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.37663948647707</v>
+        <v>1.317881733417124</v>
       </c>
       <c r="G23">
-        <v>0.0007230074869914831</v>
+        <v>0.8724299714661328</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.5581931227177961</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4865852052551105</v>
       </c>
       <c r="J23">
-        <v>0.7855841606613296</v>
+        <v>0.2691244706348357</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.739852430951373</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.7159683384802733</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7548043508604998</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.358807163513518</v>
+        <v>1.286535621075416</v>
       </c>
       <c r="C24">
-        <v>1.441075287321382</v>
+        <v>0.2549145982183347</v>
       </c>
       <c r="D24">
-        <v>0.01246625701300985</v>
+        <v>0.2290418255099382</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.601802745808669</v>
+        <v>1.210629927774107</v>
       </c>
       <c r="G24">
-        <v>0.0007466644435811802</v>
+        <v>0.8008029690095952</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5358322509998743</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4682189014314275</v>
       </c>
       <c r="J24">
-        <v>0.6563217127014553</v>
+        <v>0.2395403167633816</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.482155652484039</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.6128869362396614</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8234145311898899</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.255445708126274</v>
+        <v>1.04947284415644</v>
       </c>
       <c r="C25">
-        <v>1.135660897224795</v>
+        <v>0.2072645557735626</v>
       </c>
       <c r="D25">
-        <v>0.008332095234742098</v>
+        <v>0.1921556802410294</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.85300139317502</v>
+        <v>1.104295545748826</v>
       </c>
       <c r="G25">
-        <v>0.0007718228537090363</v>
+        <v>0.7308829288551237</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5157178490070606</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4525553308100712</v>
       </c>
       <c r="J25">
-        <v>0.5293016762849163</v>
+        <v>0.20916426416332</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.208186054037014</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5039978530441829</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9031649749647279</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8768749288714162</v>
+        <v>0.3752571294055258</v>
       </c>
       <c r="C2">
-        <v>0.1727586566096022</v>
+        <v>0.07041978470478227</v>
       </c>
       <c r="D2">
-        <v>0.1655457958196109</v>
+        <v>0.204324031431085</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.032903098662075</v>
+        <v>1.801239737127617</v>
       </c>
       <c r="G2">
-        <v>0.6847856141371551</v>
+        <v>1.09076422471523</v>
       </c>
       <c r="H2">
-        <v>0.5039356309790719</v>
+        <v>1.087655301892994</v>
       </c>
       <c r="I2">
-        <v>0.4441447160185206</v>
+        <v>0.8761141638628835</v>
       </c>
       <c r="J2">
-        <v>0.187904178483258</v>
+        <v>0.2871523237644809</v>
       </c>
       <c r="K2">
-        <v>1.008952129390508</v>
+        <v>0.4267954579349578</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.425363701301201</v>
+        <v>0.3168094642479886</v>
       </c>
       <c r="N2">
-        <v>0.9664275255385419</v>
+        <v>2.012933172946326</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7607783139640958</v>
+        <v>0.3429065644524201</v>
       </c>
       <c r="C3">
-        <v>0.1496391841066469</v>
+        <v>0.06413048884360251</v>
       </c>
       <c r="D3">
-        <v>0.14779632012511</v>
+        <v>0.2005809308349455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9883061510718747</v>
+        <v>1.800969117776837</v>
       </c>
       <c r="G3">
-        <v>0.656482738297683</v>
+        <v>1.090735609142499</v>
       </c>
       <c r="H3">
-        <v>0.4976507798334922</v>
+        <v>1.092142826404995</v>
       </c>
       <c r="I3">
-        <v>0.4401907068118618</v>
+        <v>0.8804118492662631</v>
       </c>
       <c r="J3">
-        <v>0.1740885141248754</v>
+        <v>0.2853477372711168</v>
       </c>
       <c r="K3">
-        <v>0.875053674217753</v>
+        <v>0.3896929908914899</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3728353056091933</v>
+        <v>0.3039700844068989</v>
       </c>
       <c r="N3">
-        <v>1.011954933484624</v>
+        <v>2.032261794613589</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.689822973929239</v>
+        <v>0.3231634046853742</v>
       </c>
       <c r="C4">
-        <v>0.1355460124434842</v>
+        <v>0.06029348825607883</v>
       </c>
       <c r="D4">
-        <v>0.1370206646978431</v>
+        <v>0.198366495907436</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9626332851149186</v>
+        <v>1.801679988168203</v>
       </c>
       <c r="G4">
-        <v>0.640425458485268</v>
+        <v>1.0913229993713</v>
       </c>
       <c r="H4">
-        <v>0.4945729734949396</v>
+        <v>1.095336043500936</v>
       </c>
       <c r="I4">
-        <v>0.4385625280853098</v>
+        <v>0.8834550543796134</v>
       </c>
       <c r="J4">
-        <v>0.1658683735410804</v>
+        <v>0.2843783480104065</v>
       </c>
       <c r="K4">
-        <v>0.7932651413105418</v>
+        <v>0.3670515718673926</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3408989954217958</v>
+        <v>0.2962399222303418</v>
       </c>
       <c r="N4">
-        <v>1.041162749435959</v>
+        <v>2.044750757775269</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6609767738362962</v>
+        <v>0.3151484902175241</v>
       </c>
       <c r="C5">
-        <v>0.1298247429402295</v>
+        <v>0.05873609904676869</v>
       </c>
       <c r="D5">
-        <v>0.1326579296721491</v>
+        <v>0.1974852640434364</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.952579410890749</v>
+        <v>1.802190308250701</v>
       </c>
       <c r="G5">
-        <v>0.6341962555314069</v>
+        <v>1.091714433369788</v>
       </c>
       <c r="H5">
-        <v>0.4935071520425538</v>
+        <v>1.096747485925903</v>
       </c>
       <c r="I5">
-        <v>0.4380914811937942</v>
+        <v>0.884796884227125</v>
       </c>
       <c r="J5">
-        <v>0.1625805883149241</v>
+        <v>0.2840181981835102</v>
       </c>
       <c r="K5">
-        <v>0.7600252257268494</v>
+        <v>0.3578604670719017</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3279560731468649</v>
+        <v>0.2931284983986515</v>
       </c>
       <c r="N5">
-        <v>1.05337256076746</v>
+        <v>2.049996271594129</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6561906401239526</v>
+        <v>0.31381947737529</v>
       </c>
       <c r="C6">
-        <v>0.1288759380068427</v>
+        <v>0.05847787202576171</v>
       </c>
       <c r="D6">
-        <v>0.1319351504462105</v>
+        <v>0.1973402171868059</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9509339971406305</v>
+        <v>1.8022883752204</v>
       </c>
       <c r="G6">
-        <v>0.6331803777443383</v>
+        <v>1.091788613637192</v>
       </c>
       <c r="H6">
-        <v>0.4933413265309952</v>
+        <v>1.09698851179067</v>
       </c>
       <c r="I6">
-        <v>0.4380246441245852</v>
+        <v>0.8850258366520549</v>
       </c>
       <c r="J6">
-        <v>0.1620382829106006</v>
+        <v>0.2839605031957007</v>
       </c>
       <c r="K6">
-        <v>0.7545106813455504</v>
+        <v>0.3563364427633644</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3258109919209673</v>
+        <v>0.2926141891325713</v>
       </c>
       <c r="N6">
-        <v>1.055418333432431</v>
+        <v>2.050876716196541</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6894336837496269</v>
+        <v>0.3230551884452382</v>
       </c>
       <c r="C7">
-        <v>0.1354687700839037</v>
+        <v>0.06027245954953742</v>
       </c>
       <c r="D7">
-        <v>0.13696171528143</v>
+        <v>0.1983545254833103</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9624960711083972</v>
+        <v>1.801685977054454</v>
       </c>
       <c r="G7">
-        <v>0.6403401997325773</v>
+        <v>1.09132766274476</v>
       </c>
       <c r="H7">
-        <v>0.494557846864538</v>
+        <v>1.095354632489531</v>
       </c>
       <c r="I7">
-        <v>0.438555407225568</v>
+        <v>0.8834727389824764</v>
       </c>
       <c r="J7">
-        <v>0.1658237875620685</v>
+        <v>0.2843733496275576</v>
       </c>
       <c r="K7">
-        <v>0.7928165158680827</v>
+        <v>0.3669274733946679</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3407241640846834</v>
+        <v>0.2961978036813733</v>
       </c>
       <c r="N7">
-        <v>1.041326180727324</v>
+        <v>2.044820868357469</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8367679971438804</v>
+        <v>0.364077905023322</v>
       </c>
       <c r="C8">
-        <v>0.1647634061436634</v>
+        <v>0.06824612918039463</v>
       </c>
       <c r="D8">
-        <v>0.1593988457894255</v>
+        <v>0.2030160579753328</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.017157623420687</v>
+        <v>1.800964453386854</v>
       </c>
       <c r="G8">
-        <v>0.6747416004997433</v>
+        <v>1.090628762565771</v>
       </c>
       <c r="H8">
-        <v>0.5016015368032214</v>
+        <v>1.089111767917046</v>
       </c>
       <c r="I8">
-        <v>0.4426100892871929</v>
+        <v>0.8775120740180107</v>
       </c>
       <c r="J8">
-        <v>0.1830834813210203</v>
+        <v>0.2865013416187594</v>
       </c>
       <c r="K8">
-        <v>0.9626847443844611</v>
+        <v>0.4139737370904015</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4071811887550467</v>
+        <v>0.3123507139703605</v>
       </c>
       <c r="N8">
-        <v>0.9818602775293641</v>
+        <v>2.019468757601562</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.128976786058303</v>
+        <v>0.4454659047803773</v>
       </c>
       <c r="C9">
-        <v>0.2232122084466965</v>
+        <v>0.08407801627046751</v>
       </c>
       <c r="D9">
-        <v>0.2044873464520975</v>
+        <v>0.2128194863532968</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.138969686957097</v>
+        <v>1.806506322792956</v>
       </c>
       <c r="G9">
-        <v>0.7535400755427304</v>
+        <v>1.094062248966509</v>
       </c>
       <c r="H9">
-        <v>0.5219965548858454</v>
+        <v>1.080340889496028</v>
       </c>
       <c r="I9">
-        <v>0.4573182940557032</v>
+        <v>0.8690322095882692</v>
       </c>
       <c r="J9">
-        <v>0.2192110851487072</v>
+        <v>0.2917738607578286</v>
       </c>
       <c r="K9">
-        <v>1.300026341582253</v>
+        <v>0.5073291908870488</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5404101925908265</v>
+        <v>0.3452384622784734</v>
       </c>
       <c r="N9">
-        <v>0.8755699835945236</v>
+        <v>1.974681905070085</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.346694422772373</v>
+        <v>0.5058273640812274</v>
       </c>
       <c r="C10">
-        <v>0.2670532179312204</v>
+        <v>0.09583008024745254</v>
       </c>
       <c r="D10">
-        <v>0.2384533700362255</v>
+        <v>0.2204225591644473</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.238947258552585</v>
+        <v>1.814819471217035</v>
       </c>
       <c r="G10">
-        <v>0.8196199820539078</v>
+        <v>1.099521087373247</v>
       </c>
       <c r="H10">
-        <v>0.5415654206030922</v>
+        <v>1.076010131045706</v>
       </c>
       <c r="I10">
-        <v>0.4728553129590409</v>
+        <v>0.8647593071267465</v>
       </c>
       <c r="J10">
-        <v>0.2474385998201711</v>
+        <v>0.296318096673204</v>
       </c>
       <c r="K10">
-        <v>1.551738537454696</v>
+        <v>0.5765803038505055</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6406626942345426</v>
+        <v>0.3701371708984951</v>
       </c>
       <c r="N10">
-        <v>0.8043201782999851</v>
+        <v>1.944780964790436</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.446645511758419</v>
+        <v>0.533408678087568</v>
       </c>
       <c r="C11">
-        <v>0.2872624702436042</v>
+        <v>0.1012028628595658</v>
       </c>
       <c r="D11">
-        <v>0.2541296759434317</v>
+        <v>0.223967742005442</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.287081939709708</v>
+        <v>1.819522701196846</v>
       </c>
       <c r="G11">
-        <v>0.8517649442100037</v>
+        <v>1.102643819193673</v>
       </c>
       <c r="H11">
-        <v>0.5516006373218261</v>
+        <v>1.074498256156431</v>
       </c>
       <c r="I11">
-        <v>0.4810972715362496</v>
+        <v>0.8632407287303607</v>
       </c>
       <c r="J11">
-        <v>0.2607163164083062</v>
+        <v>0.2985310857249175</v>
       </c>
       <c r="K11">
-        <v>1.667399078343493</v>
+        <v>0.6082274374857377</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6869280506564763</v>
+        <v>0.3816236646031896</v>
       </c>
       <c r="N11">
-        <v>0.7735241947169342</v>
+        <v>1.931830412692545</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.484647179900747</v>
+        <v>0.5438703598848065</v>
       </c>
       <c r="C12">
-        <v>0.2949596629139251</v>
+        <v>0.1032412348985474</v>
       </c>
       <c r="D12">
-        <v>0.2601019455393327</v>
+        <v>0.2253225777740369</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.305724803000047</v>
+        <v>1.82143617812784</v>
       </c>
       <c r="G12">
-        <v>0.8642647606380081</v>
+        <v>1.103918379570061</v>
       </c>
       <c r="H12">
-        <v>0.5555760692894296</v>
+        <v>1.073991583037795</v>
       </c>
       <c r="I12">
-        <v>0.4844003355159501</v>
+        <v>0.8627268387184444</v>
       </c>
       <c r="J12">
-        <v>0.2658133838236125</v>
+        <v>0.2993900434568957</v>
       </c>
       <c r="K12">
-        <v>1.711390439886145</v>
+        <v>0.6202319110706753</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7045552024727826</v>
+        <v>0.3859962019708618</v>
       </c>
       <c r="N12">
-        <v>0.7621070365010745</v>
+        <v>1.927020101042682</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.476455704706126</v>
+        <v>0.5416164891368567</v>
       </c>
       <c r="C13">
-        <v>0.2932998568093979</v>
+        <v>0.1028020656951298</v>
       </c>
       <c r="D13">
-        <v>0.2588140487803088</v>
+        <v>0.2250302416886854</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.301690695264469</v>
+        <v>1.821018185972449</v>
       </c>
       <c r="G13">
-        <v>0.8615576892536012</v>
+        <v>1.103639784769143</v>
       </c>
       <c r="H13">
-        <v>0.5547118847644299</v>
+        <v>1.074097776625791</v>
       </c>
       <c r="I13">
-        <v>0.4836806458705283</v>
+        <v>0.8628347935549954</v>
       </c>
       <c r="J13">
-        <v>0.2647124617162007</v>
+        <v>0.2992041202136306</v>
       </c>
       <c r="K13">
-        <v>1.701907065145662</v>
+        <v>0.6176456320831107</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7007538899363155</v>
+        <v>0.385053483855593</v>
       </c>
       <c r="N13">
-        <v>0.7645548414959897</v>
+        <v>1.928051915285213</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.449768749421679</v>
+        <v>0.5342690237326337</v>
       </c>
       <c r="C14">
-        <v>0.2878947961398808</v>
+        <v>0.1013704846205883</v>
       </c>
       <c r="D14">
-        <v>0.2546202749972366</v>
+        <v>0.2240789581095726</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.288607174286213</v>
+        <v>1.81967746956839</v>
       </c>
       <c r="G14">
-        <v>0.8527865891524016</v>
+        <v>1.102746832696695</v>
       </c>
       <c r="H14">
-        <v>0.5519241107776054</v>
+        <v>1.074455252577394</v>
       </c>
       <c r="I14">
-        <v>0.4813652897109577</v>
+        <v>0.8631972247747086</v>
       </c>
       <c r="J14">
-        <v>0.2611342330682191</v>
+        <v>0.2986013329925044</v>
       </c>
       <c r="K14">
-        <v>1.67101423886723</v>
+        <v>0.6092146462744665</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6883760178623319</v>
+        <v>0.381982938757794</v>
       </c>
       <c r="N14">
-        <v>0.7725799223368774</v>
+        <v>1.931432785406145</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.433442726090277</v>
+        <v>0.5297707221622829</v>
       </c>
       <c r="C15">
-        <v>0.2845900128934318</v>
+        <v>0.1004940960761189</v>
       </c>
       <c r="D15">
-        <v>0.2520562674036171</v>
+        <v>0.2234978754412964</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.280648266087368</v>
+        <v>1.818873491540486</v>
       </c>
       <c r="G15">
-        <v>0.8474574999876836</v>
+        <v>1.102211864117706</v>
       </c>
       <c r="H15">
-        <v>0.5502397326777952</v>
+        <v>1.074682789939104</v>
       </c>
       <c r="I15">
-        <v>0.479971178949441</v>
+        <v>0.8634271901895545</v>
       </c>
       <c r="J15">
-        <v>0.258951655591261</v>
+        <v>0.2982348357705149</v>
       </c>
       <c r="K15">
-        <v>1.652117494507479</v>
+        <v>0.6040530681967482</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6808085983245107</v>
+        <v>0.3801051127510817</v>
       </c>
       <c r="N15">
-        <v>0.7775277513423831</v>
+        <v>1.933515881839757</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.340182498173135</v>
+        <v>0.5040272936537633</v>
       </c>
       <c r="C16">
-        <v>0.2657383595492036</v>
+        <v>0.09547949160440794</v>
       </c>
       <c r="D16">
-        <v>0.2374337190016149</v>
+        <v>0.2201926063774238</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.235857772017781</v>
+        <v>1.814530643462177</v>
       </c>
       <c r="G16">
-        <v>0.8175634823552969</v>
+        <v>1.099329885427991</v>
       </c>
       <c r="H16">
-        <v>0.5409334339133522</v>
+        <v>1.076118151768767</v>
       </c>
       <c r="I16">
-        <v>0.4723414115248019</v>
+        <v>0.8648671074500172</v>
       </c>
       <c r="J16">
-        <v>0.246580185363257</v>
+        <v>0.2961764048214519</v>
       </c>
       <c r="K16">
-        <v>1.544205365545054</v>
+        <v>0.5745149634350071</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6376534768787181</v>
+        <v>0.3693897073512744</v>
       </c>
       <c r="N16">
-        <v>0.8063663102713683</v>
+        <v>1.945640432127703</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.283218265658576</v>
+        <v>0.488265652793956</v>
       </c>
       <c r="C17">
-        <v>0.2542457812083541</v>
+        <v>0.0924100174398319</v>
       </c>
       <c r="D17">
-        <v>0.2285233909646962</v>
+        <v>0.2181870249971354</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.209083226728566</v>
+        <v>1.812102438748624</v>
       </c>
       <c r="G17">
-        <v>0.7997773152281127</v>
+        <v>1.097725737076317</v>
       </c>
       <c r="H17">
-        <v>0.5355230673554701</v>
+        <v>1.077116023057201</v>
       </c>
       <c r="I17">
-        <v>0.4679705794030795</v>
+        <v>0.865859365545198</v>
       </c>
       <c r="J17">
-        <v>0.2391068910021374</v>
+        <v>0.2949509523934353</v>
       </c>
       <c r="K17">
-        <v>1.478319304915686</v>
+        <v>0.5564310199091835</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6113568841155015</v>
+        <v>0.3628570136190135</v>
       </c>
       <c r="N17">
-        <v>0.8244801299491797</v>
+        <v>1.953245388949263</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.250538242141346</v>
+        <v>0.4792115353388056</v>
       </c>
       <c r="C18">
-        <v>0.2476601698901391</v>
+        <v>0.09064705262807138</v>
       </c>
       <c r="D18">
-        <v>0.223419349932783</v>
+        <v>0.2170416153066412</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.193930901847182</v>
+        <v>1.810792541997159</v>
       </c>
       <c r="G18">
-        <v>0.789741660619697</v>
+        <v>1.096863258550442</v>
       </c>
       <c r="H18">
-        <v>0.532517039850319</v>
+        <v>1.077733103867757</v>
       </c>
       <c r="I18">
-        <v>0.4655662576361408</v>
+        <v>0.8664701053944199</v>
       </c>
       <c r="J18">
-        <v>0.2348491686081502</v>
+        <v>0.2942598284102758</v>
       </c>
       <c r="K18">
-        <v>1.440530394556049</v>
+        <v>0.5460432335104031</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5962930937883897</v>
+        <v>0.3591146447622648</v>
       </c>
       <c r="N18">
-        <v>0.8350500306422788</v>
+        <v>1.957680878916037</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.2394871981829</v>
+        <v>0.4761479643345581</v>
       </c>
       <c r="C19">
-        <v>0.2454344429651911</v>
+        <v>0.0900505758406922</v>
       </c>
       <c r="D19">
-        <v>0.2216946999194533</v>
+        <v>0.2166552013069776</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.188842142212664</v>
+        <v>1.810363933092177</v>
       </c>
       <c r="G19">
-        <v>0.7863763605999168</v>
+        <v>1.096581572165931</v>
       </c>
       <c r="H19">
-        <v>0.5315170730765715</v>
+        <v>1.077949446232196</v>
       </c>
       <c r="I19">
-        <v>0.4647706450680076</v>
+        <v>0.8666837641149314</v>
       </c>
       <c r="J19">
-        <v>0.2334143873721644</v>
+        <v>0.2940281833390799</v>
       </c>
       <c r="K19">
-        <v>1.42775330674138</v>
+        <v>0.5425284583256484</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5912029168382134</v>
+        <v>0.3578501347159175</v>
       </c>
       <c r="N19">
-        <v>0.8386544469999322</v>
+        <v>1.95919318863892</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.289273330826575</v>
+        <v>0.4899423126293243</v>
       </c>
       <c r="C20">
-        <v>0.255466595055708</v>
+        <v>0.09273650803569922</v>
       </c>
       <c r="D20">
-        <v>0.2294697174597786</v>
+        <v>0.2183996799404326</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.211907552915051</v>
+        <v>1.812351948137049</v>
       </c>
       <c r="G20">
-        <v>0.8016503633639616</v>
+        <v>1.097890271789282</v>
       </c>
       <c r="H20">
-        <v>0.5360879662507045</v>
+        <v>1.077005334345586</v>
       </c>
       <c r="I20">
-        <v>0.4684244196725373</v>
+        <v>0.8657495959809225</v>
       </c>
       <c r="J20">
-        <v>0.2398981778543714</v>
+        <v>0.2950799836621769</v>
       </c>
       <c r="K20">
-        <v>1.485321724064733</v>
+        <v>0.558354679754018</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6141497675828234</v>
+        <v>0.3635508720490748</v>
       </c>
       <c r="N20">
-        <v>0.8225361370801956</v>
+        <v>1.952429481271686</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.457603040684205</v>
+        <v>0.5364266877392367</v>
       </c>
       <c r="C21">
-        <v>0.2894811370714194</v>
+        <v>0.1017908713220663</v>
       </c>
       <c r="D21">
-        <v>0.2558510808320449</v>
+        <v>0.2243580386260504</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.292438569657577</v>
+        <v>1.820067675787826</v>
       </c>
       <c r="G21">
-        <v>0.8553537643042404</v>
+        <v>1.103006615421208</v>
       </c>
       <c r="H21">
-        <v>0.5527380863931199</v>
+        <v>1.074348466701224</v>
       </c>
       <c r="I21">
-        <v>0.4820403161273674</v>
+        <v>0.8630891098298079</v>
       </c>
       <c r="J21">
-        <v>0.262183318322883</v>
+        <v>0.2987778178650586</v>
       </c>
       <c r="K21">
-        <v>1.680082740260247</v>
+        <v>0.6116904808154402</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6920086774128009</v>
+        <v>0.3828842132863102</v>
       </c>
       <c r="N21">
-        <v>0.7702160205713326</v>
+        <v>1.930437195955466</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.568515498125095</v>
+        <v>0.5669072018078793</v>
       </c>
       <c r="C22">
-        <v>0.3119735738006</v>
+        <v>0.10773065135038</v>
       </c>
       <c r="D22">
-        <v>0.2733045080697423</v>
+        <v>0.2283241265621569</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.347508448502296</v>
+        <v>1.825882439147904</v>
       </c>
       <c r="G22">
-        <v>0.8923735906507915</v>
+        <v>1.106887020751145</v>
       </c>
       <c r="H22">
-        <v>0.5646482017280192</v>
+        <v>1.07299580033839</v>
       </c>
       <c r="I22">
-        <v>0.492006858272056</v>
+        <v>0.8617068414468747</v>
       </c>
       <c r="J22">
-        <v>0.2771538839942451</v>
+        <v>0.3013166519239263</v>
       </c>
       <c r="K22">
-        <v>1.808510728602982</v>
+        <v>0.6466671866144509</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7435269119202772</v>
+        <v>0.39565279630974</v>
       </c>
       <c r="N22">
-        <v>0.7374539642701912</v>
+        <v>1.916610640268917</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.509229613315995</v>
+        <v>0.5506301305551062</v>
       </c>
       <c r="C23">
-        <v>0.2999427910348516</v>
+        <v>0.1045584531497923</v>
       </c>
       <c r="D23">
-        <v>0.2639686423648442</v>
+        <v>0.2262007957374266</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.317881733417124</v>
+        <v>1.822708360683592</v>
       </c>
       <c r="G23">
-        <v>0.8724299714661328</v>
+        <v>1.104766847502958</v>
       </c>
       <c r="H23">
-        <v>0.5581931227177961</v>
+        <v>1.073682646560641</v>
       </c>
       <c r="I23">
-        <v>0.4865852052551105</v>
+        <v>0.8624119559334318</v>
       </c>
       <c r="J23">
-        <v>0.2691244706348357</v>
+        <v>0.2999504635331789</v>
       </c>
       <c r="K23">
-        <v>1.739852430951373</v>
+        <v>0.6279887276926104</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7159683384802733</v>
+        <v>0.3888258312634605</v>
       </c>
       <c r="N23">
-        <v>0.7548043508604998</v>
+        <v>1.923940081583144</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.286535621075416</v>
+        <v>0.4891842714527002</v>
       </c>
       <c r="C24">
-        <v>0.2549145982183347</v>
+        <v>0.09258889628796396</v>
       </c>
       <c r="D24">
-        <v>0.2290418255099382</v>
+        <v>0.2183035148816259</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.210629927774107</v>
+        <v>1.812238876706616</v>
       </c>
       <c r="G24">
-        <v>0.8008029690095952</v>
+        <v>1.09781569947728</v>
       </c>
       <c r="H24">
-        <v>0.5358322509998743</v>
+        <v>1.077055241542709</v>
       </c>
       <c r="I24">
-        <v>0.4682189014314275</v>
+        <v>0.8657990973381544</v>
       </c>
       <c r="J24">
-        <v>0.2395403167633816</v>
+        <v>0.2950216068698097</v>
       </c>
       <c r="K24">
-        <v>1.482155652484039</v>
+        <v>0.5574849653455942</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6128869362396614</v>
+        <v>0.3632371370158651</v>
       </c>
       <c r="N24">
-        <v>0.8234145311898899</v>
+        <v>1.952798155959641</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.04947284415644</v>
+        <v>0.4233483077464371</v>
       </c>
       <c r="C25">
-        <v>0.2072645557735626</v>
+        <v>0.07977401629659653</v>
       </c>
       <c r="D25">
-        <v>0.1921556802410294</v>
+        <v>0.2100968383195152</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.104295545748826</v>
+        <v>1.804262281242742</v>
       </c>
       <c r="G25">
-        <v>0.7308829288551237</v>
+        <v>1.09261831247359</v>
       </c>
       <c r="H25">
-        <v>0.5157178490070606</v>
+        <v>1.082342328188346</v>
       </c>
       <c r="I25">
-        <v>0.4525553308100712</v>
+        <v>0.8709825957764181</v>
       </c>
       <c r="J25">
-        <v>0.20916426416332</v>
+        <v>0.2902297704459045</v>
       </c>
       <c r="K25">
-        <v>1.208186054037014</v>
+        <v>0.4819571968283753</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5039978530441829</v>
+        <v>0.3362119925337055</v>
       </c>
       <c r="N25">
-        <v>0.9031649749647279</v>
+        <v>1.986270375419938</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3752571294055258</v>
+        <v>0.8768749288714162</v>
       </c>
       <c r="C2">
-        <v>0.07041978470478227</v>
+        <v>0.1727586566099149</v>
       </c>
       <c r="D2">
-        <v>0.204324031431085</v>
+        <v>0.1655457958195541</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.801239737127617</v>
+        <v>1.032903098662075</v>
       </c>
       <c r="G2">
-        <v>1.09076422471523</v>
+        <v>0.6847856141371551</v>
       </c>
       <c r="H2">
-        <v>1.087655301892994</v>
+        <v>0.5039356309790719</v>
       </c>
       <c r="I2">
-        <v>0.8761141638628835</v>
+        <v>0.4441447160185064</v>
       </c>
       <c r="J2">
-        <v>0.2871523237644809</v>
+        <v>0.1879041784831799</v>
       </c>
       <c r="K2">
-        <v>0.4267954579349578</v>
+        <v>1.008952129390508</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3168094642479886</v>
+        <v>0.4253637013012082</v>
       </c>
       <c r="N2">
-        <v>2.012933172946326</v>
+        <v>0.9664275255385419</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3429065644524201</v>
+        <v>0.7607783139640389</v>
       </c>
       <c r="C3">
-        <v>0.06413048884360251</v>
+        <v>0.1496391841068885</v>
       </c>
       <c r="D3">
-        <v>0.2005809308349455</v>
+        <v>0.14779632012511</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.800969117776837</v>
+        <v>0.9883061510718179</v>
       </c>
       <c r="G3">
-        <v>1.090735609142499</v>
+        <v>0.6564827382976688</v>
       </c>
       <c r="H3">
-        <v>1.092142826404995</v>
+        <v>0.4976507798334779</v>
       </c>
       <c r="I3">
-        <v>0.8804118492662631</v>
+        <v>0.4401907068118582</v>
       </c>
       <c r="J3">
-        <v>0.2853477372711168</v>
+        <v>0.1740885141248469</v>
       </c>
       <c r="K3">
-        <v>0.3896929908914899</v>
+        <v>0.8750536742177246</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3039700844068989</v>
+        <v>0.3728353056091933</v>
       </c>
       <c r="N3">
-        <v>2.032261794613589</v>
+        <v>1.011954933484684</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3231634046853742</v>
+        <v>0.6898229739293811</v>
       </c>
       <c r="C4">
-        <v>0.06029348825607883</v>
+        <v>0.135546012443811</v>
       </c>
       <c r="D4">
-        <v>0.198366495907436</v>
+        <v>0.1370206646978289</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.801679988168203</v>
+        <v>0.9626332851148973</v>
       </c>
       <c r="G4">
-        <v>1.0913229993713</v>
+        <v>0.6404254584852822</v>
       </c>
       <c r="H4">
-        <v>1.095336043500936</v>
+        <v>0.4945729734949396</v>
       </c>
       <c r="I4">
-        <v>0.8834550543796134</v>
+        <v>0.4385625280853134</v>
       </c>
       <c r="J4">
-        <v>0.2843783480104065</v>
+        <v>0.1658683735410378</v>
       </c>
       <c r="K4">
-        <v>0.3670515718673926</v>
+        <v>0.7932651413105134</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2962399222303418</v>
+        <v>0.34089899542181</v>
       </c>
       <c r="N4">
-        <v>2.044750757775269</v>
+        <v>1.041162749435966</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3151484902175241</v>
+        <v>0.6609767738360119</v>
       </c>
       <c r="C5">
-        <v>0.05873609904676869</v>
+        <v>0.1298247429400874</v>
       </c>
       <c r="D5">
-        <v>0.1974852640434364</v>
+        <v>0.1326579296719785</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.802190308250701</v>
+        <v>0.9525794108907348</v>
       </c>
       <c r="G5">
-        <v>1.091714433369788</v>
+        <v>0.6341962555314495</v>
       </c>
       <c r="H5">
-        <v>1.096747485925903</v>
+        <v>0.493507152042568</v>
       </c>
       <c r="I5">
-        <v>0.884796884227125</v>
+        <v>0.4380914811938119</v>
       </c>
       <c r="J5">
-        <v>0.2840181981835102</v>
+        <v>0.1625805883149312</v>
       </c>
       <c r="K5">
-        <v>0.3578604670719017</v>
+        <v>0.7600252257267357</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2931284983986515</v>
+        <v>0.3279560731468578</v>
       </c>
       <c r="N5">
-        <v>2.049996271594129</v>
+        <v>1.053372560767464</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.31381947737529</v>
+        <v>0.6561906401240662</v>
       </c>
       <c r="C6">
-        <v>0.05847787202576171</v>
+        <v>0.1288759380068569</v>
       </c>
       <c r="D6">
-        <v>0.1973402171868059</v>
+        <v>0.1319351504462105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.8022883752204</v>
+        <v>0.9509339971406519</v>
       </c>
       <c r="G6">
-        <v>1.091788613637192</v>
+        <v>0.6331803777442815</v>
       </c>
       <c r="H6">
-        <v>1.09698851179067</v>
+        <v>0.4933413265309952</v>
       </c>
       <c r="I6">
-        <v>0.8850258366520549</v>
+        <v>0.4380246441245887</v>
       </c>
       <c r="J6">
-        <v>0.2839605031957007</v>
+        <v>0.1620382829106362</v>
       </c>
       <c r="K6">
-        <v>0.3563364427633644</v>
+        <v>0.7545106813455789</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2926141891325713</v>
+        <v>0.325810991920946</v>
       </c>
       <c r="N6">
-        <v>2.050876716196541</v>
+        <v>1.055418333432424</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3230551884452382</v>
+        <v>0.6894336837495132</v>
       </c>
       <c r="C7">
-        <v>0.06027245954953742</v>
+        <v>0.1354687700841453</v>
       </c>
       <c r="D7">
-        <v>0.1983545254833103</v>
+        <v>0.1369617152815295</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.801685977054454</v>
+        <v>0.9624960711084043</v>
       </c>
       <c r="G7">
-        <v>1.09132766274476</v>
+        <v>0.6403401997325915</v>
       </c>
       <c r="H7">
-        <v>1.095354632489531</v>
+        <v>0.4945578468646374</v>
       </c>
       <c r="I7">
-        <v>0.8834727389824764</v>
+        <v>0.4385554072255715</v>
       </c>
       <c r="J7">
-        <v>0.2843733496275576</v>
+        <v>0.1658237875620259</v>
       </c>
       <c r="K7">
-        <v>0.3669274733946679</v>
+        <v>0.7928165158679974</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2961978036813733</v>
+        <v>0.3407241640846692</v>
       </c>
       <c r="N7">
-        <v>2.044820868357469</v>
+        <v>1.041326180727371</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.364077905023322</v>
+        <v>0.836767997143852</v>
       </c>
       <c r="C8">
-        <v>0.06824612918039463</v>
+        <v>0.1647634061440044</v>
       </c>
       <c r="D8">
-        <v>0.2030160579753328</v>
+        <v>0.1593988457894113</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.800964453386854</v>
+        <v>1.017157623420687</v>
       </c>
       <c r="G8">
-        <v>1.090628762565771</v>
+        <v>0.6747416004997575</v>
       </c>
       <c r="H8">
-        <v>1.089111767917046</v>
+        <v>0.5016015368032072</v>
       </c>
       <c r="I8">
-        <v>0.8775120740180107</v>
+        <v>0.4426100892872071</v>
       </c>
       <c r="J8">
-        <v>0.2865013416187594</v>
+        <v>0.1830834813209989</v>
       </c>
       <c r="K8">
-        <v>0.4139737370904015</v>
+        <v>0.9626847443844326</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3123507139703605</v>
+        <v>0.407181188755068</v>
       </c>
       <c r="N8">
-        <v>2.019468757601562</v>
+        <v>0.9818602775293535</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4454659047803773</v>
+        <v>1.128976786058331</v>
       </c>
       <c r="C9">
-        <v>0.08407801627046751</v>
+        <v>0.2232122084464692</v>
       </c>
       <c r="D9">
-        <v>0.2128194863532968</v>
+        <v>0.2044873464520691</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.806506322792956</v>
+        <v>1.138969686957068</v>
       </c>
       <c r="G9">
-        <v>1.094062248966509</v>
+        <v>0.7535400755427304</v>
       </c>
       <c r="H9">
-        <v>1.080340889496028</v>
+        <v>0.5219965548858312</v>
       </c>
       <c r="I9">
-        <v>0.8690322095882692</v>
+        <v>0.4573182940557174</v>
       </c>
       <c r="J9">
-        <v>0.2917738607578286</v>
+        <v>0.2192110851487001</v>
       </c>
       <c r="K9">
-        <v>0.5073291908870488</v>
+        <v>1.300026341582225</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3452384622784734</v>
+        <v>0.5404101925908265</v>
       </c>
       <c r="N9">
-        <v>1.974681905070085</v>
+        <v>0.8755699835945592</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5058273640812274</v>
+        <v>1.346694422772345</v>
       </c>
       <c r="C10">
-        <v>0.09583008024745254</v>
+        <v>0.2670532179313057</v>
       </c>
       <c r="D10">
-        <v>0.2204225591644473</v>
+        <v>0.2384533700362965</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.814819471217035</v>
+        <v>1.238947258552599</v>
       </c>
       <c r="G10">
-        <v>1.099521087373247</v>
+        <v>0.8196199820539221</v>
       </c>
       <c r="H10">
-        <v>1.076010131045706</v>
+        <v>0.5415654206030922</v>
       </c>
       <c r="I10">
-        <v>0.8647593071267465</v>
+        <v>0.4728553129590622</v>
       </c>
       <c r="J10">
-        <v>0.296318096673204</v>
+        <v>0.247438599820228</v>
       </c>
       <c r="K10">
-        <v>0.5765803038505055</v>
+        <v>1.551738537454725</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3701371708984951</v>
+        <v>0.6406626942345355</v>
       </c>
       <c r="N10">
-        <v>1.944780964790436</v>
+        <v>0.8043201783000526</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.533408678087568</v>
+        <v>1.446645511758163</v>
       </c>
       <c r="C11">
-        <v>0.1012028628595658</v>
+        <v>0.2872624702433484</v>
       </c>
       <c r="D11">
-        <v>0.223967742005442</v>
+        <v>0.2541296759434886</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.819522701196846</v>
+        <v>1.287081939709708</v>
       </c>
       <c r="G11">
-        <v>1.102643819193673</v>
+        <v>0.8517649442099895</v>
       </c>
       <c r="H11">
-        <v>1.074498256156431</v>
+        <v>0.5516006373219398</v>
       </c>
       <c r="I11">
-        <v>0.8632407287303607</v>
+        <v>0.4810972715362425</v>
       </c>
       <c r="J11">
-        <v>0.2985310857249175</v>
+        <v>0.2607163164084199</v>
       </c>
       <c r="K11">
-        <v>0.6082274374857377</v>
+        <v>1.667399078343578</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3816236646031896</v>
+        <v>0.6869280506564763</v>
       </c>
       <c r="N11">
-        <v>1.931830412692545</v>
+        <v>0.7735241947169698</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5438703598848065</v>
+        <v>1.48464717990089</v>
       </c>
       <c r="C12">
-        <v>0.1032412348985474</v>
+        <v>0.2949596629141809</v>
       </c>
       <c r="D12">
-        <v>0.2253225777740369</v>
+        <v>0.2601019455393327</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.82143617812784</v>
+        <v>1.305724803000032</v>
       </c>
       <c r="G12">
-        <v>1.103918379570061</v>
+        <v>0.8642647606379228</v>
       </c>
       <c r="H12">
-        <v>1.073991583037795</v>
+        <v>0.5555760692894438</v>
       </c>
       <c r="I12">
-        <v>0.8627268387184444</v>
+        <v>0.4844003355159359</v>
       </c>
       <c r="J12">
-        <v>0.2993900434568957</v>
+        <v>0.2658133838236125</v>
       </c>
       <c r="K12">
-        <v>0.6202319110706753</v>
+        <v>1.711390439886202</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3859962019708618</v>
+        <v>0.7045552024728039</v>
       </c>
       <c r="N12">
-        <v>1.927020101042682</v>
+        <v>0.7621070365010567</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5416164891368567</v>
+        <v>1.476455704706098</v>
       </c>
       <c r="C13">
-        <v>0.1028020656951298</v>
+        <v>0.2932998568093694</v>
       </c>
       <c r="D13">
-        <v>0.2250302416886854</v>
+        <v>0.2588140487801951</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.821018185972449</v>
+        <v>1.301690695264455</v>
       </c>
       <c r="G13">
-        <v>1.103639784769143</v>
+        <v>0.8615576892536012</v>
       </c>
       <c r="H13">
-        <v>1.074097776625791</v>
+        <v>0.5547118847644441</v>
       </c>
       <c r="I13">
-        <v>0.8628347935549954</v>
+        <v>0.4836806458705354</v>
       </c>
       <c r="J13">
-        <v>0.2992041202136306</v>
+        <v>0.264712461716158</v>
       </c>
       <c r="K13">
-        <v>0.6176456320831107</v>
+        <v>1.701907065145662</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.385053483855593</v>
+        <v>0.7007538899363368</v>
       </c>
       <c r="N13">
-        <v>1.928051915285213</v>
+        <v>0.7645548414960039</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5342690237326337</v>
+        <v>1.449768749421565</v>
       </c>
       <c r="C14">
-        <v>0.1013704846205883</v>
+        <v>0.2878947961396534</v>
       </c>
       <c r="D14">
-        <v>0.2240789581095726</v>
+        <v>0.2546202749972934</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.81967746956839</v>
+        <v>1.288607174286227</v>
       </c>
       <c r="G14">
-        <v>1.102746832696695</v>
+        <v>0.8527865891523447</v>
       </c>
       <c r="H14">
-        <v>1.074455252577394</v>
+        <v>0.5519241107774775</v>
       </c>
       <c r="I14">
-        <v>0.8631972247747086</v>
+        <v>0.4813652897109577</v>
       </c>
       <c r="J14">
-        <v>0.2986013329925044</v>
+        <v>0.2611342330682049</v>
       </c>
       <c r="K14">
-        <v>0.6092146462744665</v>
+        <v>1.671014238867173</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.381982938757794</v>
+        <v>0.6883760178623533</v>
       </c>
       <c r="N14">
-        <v>1.931432785406145</v>
+        <v>0.7725799223368739</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5297707221622829</v>
+        <v>1.433442726090135</v>
       </c>
       <c r="C15">
-        <v>0.1004940960761189</v>
+        <v>0.2845900128934318</v>
       </c>
       <c r="D15">
-        <v>0.2234978754412964</v>
+        <v>0.2520562674036313</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.818873491540486</v>
+        <v>1.280648266087383</v>
       </c>
       <c r="G15">
-        <v>1.102211864117706</v>
+        <v>0.8474574999876836</v>
       </c>
       <c r="H15">
-        <v>1.074682789939104</v>
+        <v>0.5502397326776816</v>
       </c>
       <c r="I15">
-        <v>0.8634271901895545</v>
+        <v>0.4799711789494552</v>
       </c>
       <c r="J15">
-        <v>0.2982348357705149</v>
+        <v>0.258951655591261</v>
       </c>
       <c r="K15">
-        <v>0.6040530681967482</v>
+        <v>1.652117494507507</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3801051127510817</v>
+        <v>0.6808085983245178</v>
       </c>
       <c r="N15">
-        <v>1.933515881839757</v>
+        <v>0.7775277513423795</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5040272936537633</v>
+        <v>1.340182498173448</v>
       </c>
       <c r="C16">
-        <v>0.09547949160440794</v>
+        <v>0.2657383595492036</v>
       </c>
       <c r="D16">
-        <v>0.2201926063774238</v>
+        <v>0.2374337190016007</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.814530643462177</v>
+        <v>1.235857772017781</v>
       </c>
       <c r="G16">
-        <v>1.099329885427991</v>
+        <v>0.8175634823553679</v>
       </c>
       <c r="H16">
-        <v>1.076118151768767</v>
+        <v>0.5409334339134659</v>
       </c>
       <c r="I16">
-        <v>0.8648671074500172</v>
+        <v>0.4723414115247806</v>
       </c>
       <c r="J16">
-        <v>0.2961764048214519</v>
+        <v>0.2465801853633565</v>
       </c>
       <c r="K16">
-        <v>0.5745149634350071</v>
+        <v>1.544205365545082</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3693897073512744</v>
+        <v>0.6376534768787323</v>
       </c>
       <c r="N16">
-        <v>1.945640432127703</v>
+        <v>0.8063663102713399</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.488265652793956</v>
+        <v>1.283218265658547</v>
       </c>
       <c r="C17">
-        <v>0.0924100174398319</v>
+        <v>0.2542457812081267</v>
       </c>
       <c r="D17">
-        <v>0.2181870249971354</v>
+        <v>0.2285233909648952</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.812102438748624</v>
+        <v>1.209083226728552</v>
       </c>
       <c r="G17">
-        <v>1.097725737076317</v>
+        <v>0.7997773152281127</v>
       </c>
       <c r="H17">
-        <v>1.077116023057201</v>
+        <v>0.5355230673554843</v>
       </c>
       <c r="I17">
-        <v>0.865859365545198</v>
+        <v>0.4679705794030724</v>
       </c>
       <c r="J17">
-        <v>0.2949509523934353</v>
+        <v>0.2391068910021232</v>
       </c>
       <c r="K17">
-        <v>0.5564310199091835</v>
+        <v>1.478319304915715</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3628570136190135</v>
+        <v>0.6113568841154944</v>
       </c>
       <c r="N17">
-        <v>1.953245388949263</v>
+        <v>0.8244801299491478</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4792115353388056</v>
+        <v>1.250538242141459</v>
       </c>
       <c r="C18">
-        <v>0.09064705262807138</v>
+        <v>0.2476601698900396</v>
       </c>
       <c r="D18">
-        <v>0.2170416153066412</v>
+        <v>0.2234193499329251</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.810792541997159</v>
+        <v>1.193930901847168</v>
       </c>
       <c r="G18">
-        <v>1.096863258550442</v>
+        <v>0.789741660619697</v>
       </c>
       <c r="H18">
-        <v>1.077733103867757</v>
+        <v>0.532517039850319</v>
       </c>
       <c r="I18">
-        <v>0.8664701053944199</v>
+        <v>0.4655662576361408</v>
       </c>
       <c r="J18">
-        <v>0.2942598284102758</v>
+        <v>0.2348491686081644</v>
       </c>
       <c r="K18">
-        <v>0.5460432335104031</v>
+        <v>1.440530394555935</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3591146447622648</v>
+        <v>0.5962930937884181</v>
       </c>
       <c r="N18">
-        <v>1.957680878916037</v>
+        <v>0.8350500306422184</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4761479643345581</v>
+        <v>1.239487198183014</v>
       </c>
       <c r="C19">
-        <v>0.0900505758406922</v>
+        <v>0.245434442965518</v>
       </c>
       <c r="D19">
-        <v>0.2166552013069776</v>
+        <v>0.2216946999194676</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.810363933092177</v>
+        <v>1.188842142212664</v>
       </c>
       <c r="G19">
-        <v>1.096581572165931</v>
+        <v>0.7863763605999026</v>
       </c>
       <c r="H19">
-        <v>1.077949446232196</v>
+        <v>0.5315170730765573</v>
       </c>
       <c r="I19">
-        <v>0.8666837641149314</v>
+        <v>0.4647706450680076</v>
       </c>
       <c r="J19">
-        <v>0.2940281833390799</v>
+        <v>0.2334143873721217</v>
       </c>
       <c r="K19">
-        <v>0.5425284583256484</v>
+        <v>1.427753306741295</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3578501347159175</v>
+        <v>0.5912029168382276</v>
       </c>
       <c r="N19">
-        <v>1.95919318863892</v>
+        <v>0.8386544469999109</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4899423126293243</v>
+        <v>1.289273330826575</v>
       </c>
       <c r="C20">
-        <v>0.09273650803569922</v>
+        <v>0.2554665950555943</v>
       </c>
       <c r="D20">
-        <v>0.2183996799404326</v>
+        <v>0.2294697174598497</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.812351948137049</v>
+        <v>1.211907552915051</v>
       </c>
       <c r="G20">
-        <v>1.097890271789282</v>
+        <v>0.8016503633640042</v>
       </c>
       <c r="H20">
-        <v>1.077005334345586</v>
+        <v>0.5360879662507045</v>
       </c>
       <c r="I20">
-        <v>0.8657495959809225</v>
+        <v>0.4684244196725444</v>
       </c>
       <c r="J20">
-        <v>0.2950799836621769</v>
+        <v>0.2398981778543572</v>
       </c>
       <c r="K20">
-        <v>0.558354679754018</v>
+        <v>1.485321724064761</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3635508720490748</v>
+        <v>0.6141497675828518</v>
       </c>
       <c r="N20">
-        <v>1.952429481271686</v>
+        <v>0.8225361370801885</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5364266877392367</v>
+        <v>1.457603040684205</v>
       </c>
       <c r="C21">
-        <v>0.1017908713220663</v>
+        <v>0.2894811370711921</v>
       </c>
       <c r="D21">
-        <v>0.2243580386260504</v>
+        <v>0.2558510808320449</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.820067675787826</v>
+        <v>1.292438569657591</v>
       </c>
       <c r="G21">
-        <v>1.103006615421208</v>
+        <v>0.8553537643042262</v>
       </c>
       <c r="H21">
-        <v>1.074348466701224</v>
+        <v>0.5527380863931199</v>
       </c>
       <c r="I21">
-        <v>0.8630891098298079</v>
+        <v>0.4820403161273674</v>
       </c>
       <c r="J21">
-        <v>0.2987778178650586</v>
+        <v>0.262183318322883</v>
       </c>
       <c r="K21">
-        <v>0.6116904808154402</v>
+        <v>1.680082740260247</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3828842132863102</v>
+        <v>0.6920086774128151</v>
       </c>
       <c r="N21">
-        <v>1.930437195955466</v>
+        <v>0.7702160205713291</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5669072018078793</v>
+        <v>1.568515498125095</v>
       </c>
       <c r="C22">
-        <v>0.10773065135038</v>
+        <v>0.3119735738006852</v>
       </c>
       <c r="D22">
-        <v>0.2283241265621569</v>
+        <v>0.2733045080697138</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.825882439147904</v>
+        <v>1.347508448502296</v>
       </c>
       <c r="G22">
-        <v>1.106887020751145</v>
+        <v>0.8923735906508483</v>
       </c>
       <c r="H22">
-        <v>1.07299580033839</v>
+        <v>0.5646482017280192</v>
       </c>
       <c r="I22">
-        <v>0.8617068414468747</v>
+        <v>0.492006858272056</v>
       </c>
       <c r="J22">
-        <v>0.3013166519239263</v>
+        <v>0.2771538839943446</v>
       </c>
       <c r="K22">
-        <v>0.6466671866144509</v>
+        <v>1.808510728602897</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.39565279630974</v>
+        <v>0.7435269119202701</v>
       </c>
       <c r="N22">
-        <v>1.916610640268917</v>
+        <v>0.7374539642701912</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5506301305551062</v>
+        <v>1.509229613315938</v>
       </c>
       <c r="C23">
-        <v>0.1045584531497923</v>
+        <v>0.2999427910348516</v>
       </c>
       <c r="D23">
-        <v>0.2262007957374266</v>
+        <v>0.2639686423650289</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.822708360683592</v>
+        <v>1.317881733417124</v>
       </c>
       <c r="G23">
-        <v>1.104766847502958</v>
+        <v>0.8724299714661896</v>
       </c>
       <c r="H23">
-        <v>1.073682646560641</v>
+        <v>0.5581931227178103</v>
       </c>
       <c r="I23">
-        <v>0.8624119559334318</v>
+        <v>0.4865852052551176</v>
       </c>
       <c r="J23">
-        <v>0.2999504635331789</v>
+        <v>0.269124470634722</v>
       </c>
       <c r="K23">
-        <v>0.6279887276926104</v>
+        <v>1.739852430951345</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3888258312634605</v>
+        <v>0.7159683384802591</v>
       </c>
       <c r="N23">
-        <v>1.923940081583144</v>
+        <v>0.7548043508604998</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4891842714527002</v>
+        <v>1.286535621075416</v>
       </c>
       <c r="C24">
-        <v>0.09258889628796396</v>
+        <v>0.2549145982184768</v>
       </c>
       <c r="D24">
-        <v>0.2183035148816259</v>
+        <v>0.2290418255098814</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.812238876706616</v>
+        <v>1.210629927774121</v>
       </c>
       <c r="G24">
-        <v>1.09781569947728</v>
+        <v>0.8008029690096237</v>
       </c>
       <c r="H24">
-        <v>1.077055241542709</v>
+        <v>0.535832250999988</v>
       </c>
       <c r="I24">
-        <v>0.8657990973381544</v>
+        <v>0.4682189014314346</v>
       </c>
       <c r="J24">
-        <v>0.2950216068698097</v>
+        <v>0.2395403167635379</v>
       </c>
       <c r="K24">
-        <v>0.5574849653455942</v>
+        <v>1.48215565248401</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3632371370158651</v>
+        <v>0.6128869362396472</v>
       </c>
       <c r="N24">
-        <v>1.952798155959641</v>
+        <v>0.8234145311899148</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4233483077464371</v>
+        <v>1.049472844156696</v>
       </c>
       <c r="C25">
-        <v>0.07977401629659653</v>
+        <v>0.2072645557736621</v>
       </c>
       <c r="D25">
-        <v>0.2100968383195152</v>
+        <v>0.1921556802409015</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.804262281242742</v>
+        <v>1.10429554574884</v>
       </c>
       <c r="G25">
-        <v>1.09261831247359</v>
+        <v>0.7308829288551095</v>
       </c>
       <c r="H25">
-        <v>1.082342328188346</v>
+        <v>0.5157178490070606</v>
       </c>
       <c r="I25">
-        <v>0.8709825957764181</v>
+        <v>0.4525553308100569</v>
       </c>
       <c r="J25">
-        <v>0.2902297704459045</v>
+        <v>0.2091642641633271</v>
       </c>
       <c r="K25">
-        <v>0.4819571968283753</v>
+        <v>1.208186054036929</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3362119925337055</v>
+        <v>0.5039978530441829</v>
       </c>
       <c r="N25">
-        <v>1.986270375419938</v>
+        <v>0.9031649749647244</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8768749288714162</v>
+        <v>3.434417643568509</v>
       </c>
       <c r="C2">
-        <v>0.1727586566099149</v>
+        <v>1.144712818294295</v>
       </c>
       <c r="D2">
-        <v>0.1655457958195541</v>
+        <v>0.3123760442629475</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.032903098662075</v>
+        <v>1.205266753805645</v>
       </c>
       <c r="G2">
-        <v>0.6847856141371551</v>
+        <v>0.73146128074724</v>
       </c>
       <c r="H2">
-        <v>0.5039356309790719</v>
+        <v>0.0003601650289539737</v>
       </c>
       <c r="I2">
-        <v>0.4441447160185064</v>
+        <v>0.001077091442577949</v>
       </c>
       <c r="J2">
-        <v>0.1879041784831799</v>
+        <v>0.4948503304475622</v>
       </c>
       <c r="K2">
-        <v>1.008952129390508</v>
+        <v>0.3168370846712563</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5124944197761181</v>
       </c>
       <c r="M2">
-        <v>0.4253637013012082</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9664275255385419</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7607783139640389</v>
+        <v>2.990033006693295</v>
       </c>
       <c r="C3">
-        <v>0.1496391841068885</v>
+        <v>0.9968553770831079</v>
       </c>
       <c r="D3">
-        <v>0.14779632012511</v>
+        <v>0.2755548077891774</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9883061510718179</v>
+        <v>1.111939355810662</v>
       </c>
       <c r="G3">
-        <v>0.6564827382976688</v>
+        <v>0.6746673705668655</v>
       </c>
       <c r="H3">
-        <v>0.4976507798334779</v>
+        <v>7.625252296250551E-08</v>
       </c>
       <c r="I3">
-        <v>0.4401907068118582</v>
+        <v>0.0004708235328751975</v>
       </c>
       <c r="J3">
-        <v>0.1740885141248469</v>
+        <v>0.4743501209024004</v>
       </c>
       <c r="K3">
-        <v>0.8750536742177246</v>
+        <v>0.3172502880096353</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4507008927300262</v>
       </c>
       <c r="M3">
-        <v>0.3728353056091933</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.011954933484684</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6898229739293811</v>
+        <v>2.717167346176041</v>
       </c>
       <c r="C4">
-        <v>0.135546012443811</v>
+        <v>0.9067497345115783</v>
       </c>
       <c r="D4">
-        <v>0.1370206646978289</v>
+        <v>0.2530916678862667</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9626332851148973</v>
+        <v>1.05543150756678</v>
       </c>
       <c r="G4">
-        <v>0.6404254584852822</v>
+        <v>0.6405555441616428</v>
       </c>
       <c r="H4">
-        <v>0.4945729734949396</v>
+        <v>0.0001344270136414139</v>
       </c>
       <c r="I4">
-        <v>0.4385625280853134</v>
+        <v>0.0004405879691771197</v>
       </c>
       <c r="J4">
-        <v>0.1658683735410378</v>
+        <v>0.4622344963235605</v>
       </c>
       <c r="K4">
-        <v>0.7932651413105134</v>
+        <v>0.3179156297428563</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4128635992005627</v>
       </c>
       <c r="M4">
-        <v>0.34089899542181</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.041162749435966</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6609767738360119</v>
+        <v>2.605915882671638</v>
       </c>
       <c r="C5">
-        <v>0.1298247429400874</v>
+        <v>0.8714698395674816</v>
       </c>
       <c r="D5">
-        <v>0.1326579296719785</v>
+        <v>0.2442637531186307</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9525794108907348</v>
+        <v>1.031141486411826</v>
       </c>
       <c r="G5">
-        <v>0.6341962555314495</v>
+        <v>0.6255005086403429</v>
       </c>
       <c r="H5">
-        <v>0.493507152042568</v>
+        <v>0.0002738052848170192</v>
       </c>
       <c r="I5">
-        <v>0.4380914811938119</v>
+        <v>0.0005747415003813927</v>
       </c>
       <c r="J5">
-        <v>0.1625805883149312</v>
+        <v>0.4567224856003946</v>
       </c>
       <c r="K5">
-        <v>0.7600252257267357</v>
+        <v>0.3175792512842044</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3974470979293727</v>
       </c>
       <c r="M5">
-        <v>0.3279560731468578</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.053372560767464</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6561906401240662</v>
+        <v>2.587410300903173</v>
       </c>
       <c r="C6">
-        <v>0.1288759380068569</v>
+        <v>0.8671988759836324</v>
       </c>
       <c r="D6">
-        <v>0.1319351504462105</v>
+        <v>0.2431604901138797</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9509339971406519</v>
+        <v>1.025357697903274</v>
       </c>
       <c r="G6">
-        <v>0.6331803777442815</v>
+        <v>0.6213914440104844</v>
       </c>
       <c r="H6">
-        <v>0.4933413265309952</v>
+        <v>0.0003025872047905942</v>
       </c>
       <c r="I6">
-        <v>0.4380246441245887</v>
+        <v>0.000690337887167658</v>
       </c>
       <c r="J6">
-        <v>0.1620382829106362</v>
+        <v>0.4549775764595836</v>
       </c>
       <c r="K6">
-        <v>0.7545106813455789</v>
+        <v>0.3166709042556874</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3948705170921585</v>
       </c>
       <c r="M6">
-        <v>0.325810991920946</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.055418333432424</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6894336837495132</v>
+        <v>2.715583298412696</v>
       </c>
       <c r="C7">
-        <v>0.1354687700841453</v>
+        <v>0.9105952800541104</v>
       </c>
       <c r="D7">
-        <v>0.1369617152815295</v>
+        <v>0.2539598757437886</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9624960711084043</v>
+        <v>1.050289926173463</v>
       </c>
       <c r="G7">
-        <v>0.6403401997325915</v>
+        <v>0.6359243594328916</v>
       </c>
       <c r="H7">
-        <v>0.4945578468646374</v>
+        <v>0.0001371955150284432</v>
       </c>
       <c r="I7">
-        <v>0.4385554072255715</v>
+        <v>0.0006674638673382915</v>
       </c>
       <c r="J7">
-        <v>0.1658237875620259</v>
+        <v>0.4598760355572011</v>
       </c>
       <c r="K7">
-        <v>0.7928165158679974</v>
+        <v>0.3155671451993065</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4126078882928397</v>
       </c>
       <c r="M7">
-        <v>0.3407241640846692</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.041326180727371</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.836767997143852</v>
+        <v>3.281053413251925</v>
       </c>
       <c r="C8">
-        <v>0.1647634061440044</v>
+        <v>1.099349943100435</v>
       </c>
       <c r="D8">
-        <v>0.1593988457894113</v>
+        <v>0.3009635879206058</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.017157623420687</v>
+        <v>1.166524440641822</v>
       </c>
       <c r="G8">
-        <v>0.6747416004997575</v>
+        <v>0.7058354673969376</v>
       </c>
       <c r="H8">
-        <v>0.5016015368032072</v>
+        <v>0.0001573294586330043</v>
       </c>
       <c r="I8">
-        <v>0.4426100892872071</v>
+        <v>0.00105600346457102</v>
       </c>
       <c r="J8">
-        <v>0.1830834813209989</v>
+        <v>0.4846592228472986</v>
       </c>
       <c r="K8">
-        <v>0.9626847443844326</v>
+        <v>0.3138011297402699</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4910967277634768</v>
       </c>
       <c r="M8">
-        <v>0.407181188755068</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9818602775293535</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.128976786058331</v>
+        <v>4.391510873852951</v>
       </c>
       <c r="C9">
-        <v>0.2232122084464692</v>
+        <v>1.468034860850537</v>
       </c>
       <c r="D9">
-        <v>0.2044873464520691</v>
+        <v>0.3927468296867573</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.138969686957068</v>
+        <v>1.410511399277553</v>
       </c>
       <c r="G9">
-        <v>0.7535400755427304</v>
+        <v>0.85789475611071</v>
       </c>
       <c r="H9">
-        <v>0.5219965548858312</v>
+        <v>0.00327444172567759</v>
       </c>
       <c r="I9">
-        <v>0.4573182940557174</v>
+        <v>0.004494834207204867</v>
       </c>
       <c r="J9">
-        <v>0.2192110851487001</v>
+        <v>0.5415296330860997</v>
       </c>
       <c r="K9">
-        <v>1.300026341582225</v>
+        <v>0.3181310785706657</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6463801873910029</v>
       </c>
       <c r="M9">
-        <v>0.5404101925908265</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8755699835945592</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.346694422772345</v>
+        <v>5.209581941684007</v>
       </c>
       <c r="C10">
-        <v>0.2670532179313057</v>
+        <v>1.739902649036821</v>
       </c>
       <c r="D10">
-        <v>0.2384533700362965</v>
+        <v>0.4505898555455303</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.238947258552599</v>
+        <v>1.56047929074785</v>
       </c>
       <c r="G10">
-        <v>0.8196199820539221</v>
+        <v>0.9528940717211754</v>
       </c>
       <c r="H10">
-        <v>0.5415654206030922</v>
+        <v>0.007658998650318161</v>
       </c>
       <c r="I10">
-        <v>0.4728553129590622</v>
+        <v>0.009271786826650086</v>
       </c>
       <c r="J10">
-        <v>0.247438599820228</v>
+        <v>0.5752837348679947</v>
       </c>
       <c r="K10">
-        <v>1.551738537454725</v>
+        <v>0.3152772092332512</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7281919235798711</v>
       </c>
       <c r="M10">
-        <v>0.6406626942345355</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8043201783000526</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.446645511758163</v>
+        <v>5.574915507912635</v>
       </c>
       <c r="C11">
-        <v>0.2872624702433484</v>
+        <v>1.814655128295271</v>
       </c>
       <c r="D11">
-        <v>0.2541296759434886</v>
+        <v>0.3848092003301531</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.287081939709708</v>
+        <v>1.346207466963293</v>
       </c>
       <c r="G11">
-        <v>0.8517649442099895</v>
+        <v>0.8212084085000413</v>
       </c>
       <c r="H11">
-        <v>0.5516006373219398</v>
+        <v>0.02595876379970008</v>
       </c>
       <c r="I11">
-        <v>0.4810972715362425</v>
+        <v>0.01131445471829284</v>
       </c>
       <c r="J11">
-        <v>0.2607163164084199</v>
+        <v>0.5030595373910671</v>
       </c>
       <c r="K11">
-        <v>1.667399078343578</v>
+        <v>0.2500099744106521</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5033353314237132</v>
       </c>
       <c r="M11">
-        <v>0.6869280506564763</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7735241947169698</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.48464717990089</v>
+        <v>5.710380277681679</v>
       </c>
       <c r="C12">
-        <v>0.2949596629141809</v>
+        <v>1.811986786188811</v>
       </c>
       <c r="D12">
-        <v>0.2601019455393327</v>
+        <v>0.3211623444235414</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.305724803000032</v>
+        <v>1.153852813542755</v>
       </c>
       <c r="G12">
-        <v>0.8642647606379228</v>
+        <v>0.7042716506842197</v>
       </c>
       <c r="H12">
-        <v>0.5555760692894438</v>
+        <v>0.06387214784956541</v>
       </c>
       <c r="I12">
-        <v>0.4844003355159359</v>
+        <v>0.01156670974345531</v>
       </c>
       <c r="J12">
-        <v>0.2658133838236125</v>
+        <v>0.4418435611642337</v>
       </c>
       <c r="K12">
-        <v>1.711390439886202</v>
+        <v>0.2047812531821549</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3374157051991347</v>
       </c>
       <c r="M12">
-        <v>0.7045552024728039</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7621070365010567</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.476455704706098</v>
+        <v>5.675201859578124</v>
       </c>
       <c r="C13">
-        <v>0.2932998568093694</v>
+        <v>1.756535776282476</v>
       </c>
       <c r="D13">
-        <v>0.2588140487801951</v>
+        <v>0.2574287918433953</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.301690695264455</v>
+        <v>0.960492820405392</v>
       </c>
       <c r="G13">
-        <v>0.8615576892536012</v>
+        <v>0.5851708100276483</v>
       </c>
       <c r="H13">
-        <v>0.5547118847644441</v>
+        <v>0.1184414230186093</v>
       </c>
       <c r="I13">
-        <v>0.4836806458705354</v>
+        <v>0.01070523528458267</v>
       </c>
       <c r="J13">
-        <v>0.264712461716158</v>
+        <v>0.3820080749172092</v>
       </c>
       <c r="K13">
-        <v>1.701907065145662</v>
+        <v>0.1684783606773657</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2079011622919396</v>
       </c>
       <c r="M13">
-        <v>0.7007538899363368</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7645548414960039</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.449768749421565</v>
+        <v>5.573381726655157</v>
       </c>
       <c r="C14">
-        <v>0.2878947961396534</v>
+        <v>1.695497586467809</v>
       </c>
       <c r="D14">
-        <v>0.2546202749972934</v>
+        <v>0.2141844076723345</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.288607174286227</v>
+        <v>0.8266947849981818</v>
       </c>
       <c r="G14">
-        <v>0.8527865891523447</v>
+        <v>0.5016603021039003</v>
       </c>
       <c r="H14">
-        <v>0.5519241107774775</v>
+        <v>0.166858865779318</v>
       </c>
       <c r="I14">
-        <v>0.4813652897109577</v>
+        <v>0.009725169245131227</v>
       </c>
       <c r="J14">
-        <v>0.2611342330682049</v>
+        <v>0.3410679397424161</v>
       </c>
       <c r="K14">
-        <v>1.671014238867173</v>
+        <v>0.1475963609532087</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1399196179894417</v>
       </c>
       <c r="M14">
-        <v>0.6883760178623533</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7725799223368739</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.433442726090135</v>
+        <v>5.512175343742285</v>
       </c>
       <c r="C15">
-        <v>0.2845900128934318</v>
+        <v>1.671382256161223</v>
       </c>
       <c r="D15">
-        <v>0.2520562674036313</v>
+        <v>0.2032651434353738</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.280648266087383</v>
+        <v>0.7912694706717502</v>
       </c>
       <c r="G15">
-        <v>0.8474574999876836</v>
+        <v>0.4788700082788466</v>
       </c>
       <c r="H15">
-        <v>0.5502397326776816</v>
+        <v>0.1790075399511863</v>
       </c>
       <c r="I15">
-        <v>0.4799711789494552</v>
+        <v>0.009365182933352756</v>
       </c>
       <c r="J15">
-        <v>0.258951655591261</v>
+        <v>0.3304034593838168</v>
       </c>
       <c r="K15">
-        <v>1.652117494507507</v>
+        <v>0.1432383157190209</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1259694206843101</v>
       </c>
       <c r="M15">
-        <v>0.6808085983245178</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7775277513423795</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.340182498173448</v>
+        <v>5.1658763999597</v>
       </c>
       <c r="C16">
-        <v>0.2657383595492036</v>
+        <v>1.569286126986071</v>
       </c>
       <c r="D16">
-        <v>0.2374337190016007</v>
+        <v>0.193809344595806</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.235857772017781</v>
+        <v>0.7680281498036408</v>
       </c>
       <c r="G16">
-        <v>0.8175634823553679</v>
+        <v>0.4618560197332755</v>
       </c>
       <c r="H16">
-        <v>0.5409334339134659</v>
+        <v>0.1647757305327531</v>
       </c>
       <c r="I16">
-        <v>0.4723414115247806</v>
+        <v>0.007452901237233966</v>
       </c>
       <c r="J16">
-        <v>0.2465801853633565</v>
+        <v>0.3274989131366368</v>
       </c>
       <c r="K16">
-        <v>1.544205365545082</v>
+        <v>0.1505316585761687</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1221356014554829</v>
       </c>
       <c r="M16">
-        <v>0.6376534768787323</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8063663102713399</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.283218265658547</v>
+        <v>4.955059478247904</v>
       </c>
       <c r="C17">
-        <v>0.2542457812081267</v>
+        <v>1.523619909075933</v>
       </c>
       <c r="D17">
-        <v>0.2285233909648952</v>
+        <v>0.2087365489762618</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.209083226728552</v>
+        <v>0.8191520131586287</v>
       </c>
       <c r="G17">
-        <v>0.7997773152281127</v>
+        <v>0.491984243951137</v>
       </c>
       <c r="H17">
-        <v>0.5355230673554843</v>
+        <v>0.1263380149986091</v>
       </c>
       <c r="I17">
-        <v>0.4679705794030724</v>
+        <v>0.006567513224891464</v>
       </c>
       <c r="J17">
-        <v>0.2391068910021232</v>
+        <v>0.3465266321035472</v>
       </c>
       <c r="K17">
-        <v>1.478319304915715</v>
+        <v>0.1666641996965144</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1507928917996466</v>
       </c>
       <c r="M17">
-        <v>0.6113568841154944</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8244801299491478</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.250538242141459</v>
+        <v>4.836077256499323</v>
       </c>
       <c r="C18">
-        <v>0.2476601698900396</v>
+        <v>1.51701736364663</v>
       </c>
       <c r="D18">
-        <v>0.2234193499329251</v>
+        <v>0.248740231843243</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.193930901847168</v>
+        <v>0.9499705868058754</v>
       </c>
       <c r="G18">
-        <v>0.789741660619697</v>
+        <v>0.572831057274982</v>
       </c>
       <c r="H18">
-        <v>0.532517039850319</v>
+        <v>0.07353491356904129</v>
       </c>
       <c r="I18">
-        <v>0.4655662576361408</v>
+        <v>0.006092321877863682</v>
       </c>
       <c r="J18">
-        <v>0.2348491686081644</v>
+        <v>0.3898487186640835</v>
       </c>
       <c r="K18">
-        <v>1.440530394555935</v>
+        <v>0.1962293063478882</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2309928704082367</v>
       </c>
       <c r="M18">
-        <v>0.5962930937884181</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8350500306422184</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.239487198183014</v>
+        <v>4.799141797284904</v>
       </c>
       <c r="C19">
-        <v>0.245434442965518</v>
+        <v>1.550574086639642</v>
       </c>
       <c r="D19">
-        <v>0.2216946999194676</v>
+        <v>0.3123846854226002</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.188842142212664</v>
+        <v>1.140215457309452</v>
       </c>
       <c r="G19">
-        <v>0.7863763605999026</v>
+        <v>0.6890884644148656</v>
       </c>
       <c r="H19">
-        <v>0.5315170730765573</v>
+        <v>0.02907622708252688</v>
       </c>
       <c r="I19">
-        <v>0.4647706450680076</v>
+        <v>0.006465108717167212</v>
       </c>
       <c r="J19">
-        <v>0.2334143873721217</v>
+        <v>0.4494292494870393</v>
       </c>
       <c r="K19">
-        <v>1.427753306741295</v>
+        <v>0.2362402120355895</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3780235155609688</v>
       </c>
       <c r="M19">
-        <v>0.5912029168382276</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8386544469999109</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.289273330826575</v>
+        <v>4.994077813737533</v>
       </c>
       <c r="C20">
-        <v>0.2554665950555943</v>
+        <v>1.681768864628907</v>
       </c>
       <c r="D20">
-        <v>0.2294697174598497</v>
+        <v>0.4379940966766469</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.211907552915051</v>
+        <v>1.504299128693376</v>
       </c>
       <c r="G20">
-        <v>0.8016503633640042</v>
+        <v>0.9129107280281232</v>
       </c>
       <c r="H20">
-        <v>0.5360879662507045</v>
+        <v>0.006301994021111756</v>
       </c>
       <c r="I20">
-        <v>0.4684244196725444</v>
+        <v>0.008500286326979634</v>
       </c>
       <c r="J20">
-        <v>0.2398981778543572</v>
+        <v>0.5587253419593452</v>
       </c>
       <c r="K20">
-        <v>1.485321724064761</v>
+        <v>0.3084262609908244</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7050615765017767</v>
       </c>
       <c r="M20">
-        <v>0.6141497675828518</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8225361370801885</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.457603040684205</v>
+        <v>5.624909681759675</v>
       </c>
       <c r="C21">
-        <v>0.2894811370711921</v>
+        <v>1.899710875596497</v>
       </c>
       <c r="D21">
-        <v>0.2558510808320449</v>
+        <v>0.499693646957212</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.292438569657591</v>
+        <v>1.676035237888811</v>
       </c>
       <c r="G21">
-        <v>0.8553537643042262</v>
+        <v>1.02228869653942</v>
       </c>
       <c r="H21">
-        <v>0.5527380863931199</v>
+        <v>0.01073331568528424</v>
       </c>
       <c r="I21">
-        <v>0.4820403161273674</v>
+        <v>0.01303123527801109</v>
       </c>
       <c r="J21">
-        <v>0.262183318322883</v>
+        <v>0.6029992529659154</v>
       </c>
       <c r="K21">
-        <v>1.680082740260247</v>
+        <v>0.3205703882858089</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8206198861750948</v>
       </c>
       <c r="M21">
-        <v>0.6920086774128151</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7702160205713291</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.568515498125095</v>
+        <v>6.038311166644178</v>
       </c>
       <c r="C22">
-        <v>0.3119735738006852</v>
+        <v>2.034474411213125</v>
       </c>
       <c r="D22">
-        <v>0.2733045080697138</v>
+        <v>0.5332721122954354</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.347508448502296</v>
+        <v>1.77951004149233</v>
       </c>
       <c r="G22">
-        <v>0.8923735906508483</v>
+        <v>1.090846225474877</v>
       </c>
       <c r="H22">
-        <v>0.5646482017280192</v>
+        <v>0.01409569977614467</v>
       </c>
       <c r="I22">
-        <v>0.492006858272056</v>
+        <v>0.01624200886630423</v>
       </c>
       <c r="J22">
-        <v>0.2771538839943446</v>
+        <v>0.6305639031710086</v>
       </c>
       <c r="K22">
-        <v>1.808510728602897</v>
+        <v>0.3282985403205245</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.8795687504875787</v>
       </c>
       <c r="M22">
-        <v>0.7435269119202701</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7374539642701912</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.509229613315938</v>
+        <v>5.817679291560864</v>
       </c>
       <c r="C23">
-        <v>0.2999427910348516</v>
+        <v>1.957104655848184</v>
       </c>
       <c r="D23">
-        <v>0.2639686423650289</v>
+        <v>0.5141103617270346</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.317881733417124</v>
+        <v>1.729833014986582</v>
       </c>
       <c r="G23">
-        <v>0.8724299714661896</v>
+        <v>1.05934762797925</v>
       </c>
       <c r="H23">
-        <v>0.5581931227178103</v>
+        <v>0.01226011426200119</v>
       </c>
       <c r="I23">
-        <v>0.4865852052551176</v>
+        <v>0.01422913720236352</v>
       </c>
       <c r="J23">
-        <v>0.269124470634722</v>
+        <v>0.6184460957355071</v>
       </c>
       <c r="K23">
-        <v>1.739852430951345</v>
+        <v>0.3267983494599918</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.8481175364469351</v>
       </c>
       <c r="M23">
-        <v>0.7159683384802591</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7548043508604998</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.286535621075416</v>
+        <v>4.984689579166343</v>
       </c>
       <c r="C24">
-        <v>0.2549145982184768</v>
+        <v>1.675284041958662</v>
       </c>
       <c r="D24">
-        <v>0.2290418255098814</v>
+        <v>0.4441039294689801</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.210629927774121</v>
+        <v>1.536290988626718</v>
       </c>
       <c r="G24">
-        <v>0.8008029690096237</v>
+        <v>0.9351095708247072</v>
       </c>
       <c r="H24">
-        <v>0.535832250999988</v>
+        <v>0.006375273213042654</v>
       </c>
       <c r="I24">
-        <v>0.4682189014314346</v>
+        <v>0.008101916767744299</v>
       </c>
       <c r="J24">
-        <v>0.2395403167635379</v>
+        <v>0.5700846520420839</v>
       </c>
       <c r="K24">
-        <v>1.48215565248401</v>
+        <v>0.3183438434969368</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7299172345772007</v>
       </c>
       <c r="M24">
-        <v>0.6128869362396472</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8234145311899148</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049472844156696</v>
+        <v>4.090529833339701</v>
       </c>
       <c r="C25">
-        <v>0.2072645557736621</v>
+        <v>1.375459492816333</v>
       </c>
       <c r="D25">
-        <v>0.1921556802409015</v>
+        <v>0.3695523648357835</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.10429554574884</v>
+        <v>1.334813500798674</v>
       </c>
       <c r="G25">
-        <v>0.7308829288551095</v>
+        <v>0.8078327168787212</v>
       </c>
       <c r="H25">
-        <v>0.5157178490070606</v>
+        <v>0.00205715680788332</v>
       </c>
       <c r="I25">
-        <v>0.4525553308100569</v>
+        <v>0.003565944054884973</v>
       </c>
       <c r="J25">
-        <v>0.2091642641633271</v>
+        <v>0.5215178567343628</v>
       </c>
       <c r="K25">
-        <v>1.208186054036929</v>
+        <v>0.312343339203764</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.604078579631576</v>
       </c>
       <c r="M25">
-        <v>0.5039978530441829</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9031649749647244</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434417643568509</v>
+        <v>3.437710831778702</v>
       </c>
       <c r="C2">
-        <v>1.144712818294295</v>
+        <v>1.224260809614748</v>
       </c>
       <c r="D2">
-        <v>0.3123760442629475</v>
+        <v>0.3325858779657125</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.205266753805645</v>
+        <v>1.112471052410967</v>
       </c>
       <c r="G2">
-        <v>0.73146128074724</v>
+        <v>0.6254614484957557</v>
       </c>
       <c r="H2">
-        <v>0.0003601650289539737</v>
+        <v>0.0003580620240546395</v>
       </c>
       <c r="I2">
-        <v>0.001077091442577949</v>
+        <v>0.001345426552754603</v>
       </c>
       <c r="J2">
-        <v>0.4948503304475622</v>
+        <v>0.4923807477946696</v>
       </c>
       <c r="K2">
-        <v>0.3168370846712563</v>
+        <v>0.2687278149342234</v>
       </c>
       <c r="L2">
-        <v>0.5124944197761181</v>
+        <v>0.1507019300719925</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06285067273952727</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5124394562932366</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.990033006693295</v>
+        <v>2.994932600868083</v>
       </c>
       <c r="C3">
-        <v>0.9968553770831079</v>
+        <v>1.059335336490847</v>
       </c>
       <c r="D3">
-        <v>0.2755548077891774</v>
+        <v>0.2925274499164061</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.111939355810662</v>
+        <v>1.034764150760296</v>
       </c>
       <c r="G3">
-        <v>0.6746673705668655</v>
+        <v>0.5834926307359041</v>
       </c>
       <c r="H3">
-        <v>7.625252296250551E-08</v>
+        <v>1.671605557529432E-06</v>
       </c>
       <c r="I3">
-        <v>0.0004708235328751975</v>
+        <v>0.0006724558599557895</v>
       </c>
       <c r="J3">
-        <v>0.4743501209024004</v>
+        <v>0.4748801349158214</v>
       </c>
       <c r="K3">
-        <v>0.3172502880096353</v>
+        <v>0.2743722311791856</v>
       </c>
       <c r="L3">
-        <v>0.4507008927300262</v>
+        <v>0.156596022332284</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06184455665626132</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4516606346160756</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717167346176041</v>
+        <v>2.72280011086167</v>
       </c>
       <c r="C4">
-        <v>0.9067497345115783</v>
+        <v>0.9589594343684098</v>
       </c>
       <c r="D4">
-        <v>0.2530916678862667</v>
+        <v>0.2681156241273754</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.05543150756678</v>
+        <v>0.9875195049011296</v>
       </c>
       <c r="G4">
-        <v>0.6405555441616428</v>
+        <v>0.5583943510358864</v>
       </c>
       <c r="H4">
-        <v>0.0001344270136414139</v>
+        <v>9.815423168535453E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004405879691771197</v>
+        <v>0.0005251226537863474</v>
       </c>
       <c r="J4">
-        <v>0.4622344963235605</v>
+        <v>0.4641951894790139</v>
       </c>
       <c r="K4">
-        <v>0.3179156297428563</v>
+        <v>0.2781151931253909</v>
       </c>
       <c r="L4">
-        <v>0.4128635992005627</v>
+        <v>0.1602902024044965</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06188781858192094</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.4144065978945548</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.605915882671638</v>
+        <v>2.611790889480346</v>
       </c>
       <c r="C5">
-        <v>0.8714698395674816</v>
+        <v>0.9194820119955409</v>
       </c>
       <c r="D5">
-        <v>0.2442637531186307</v>
+        <v>0.2584859099318635</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.031141486411826</v>
+        <v>0.9670979250642517</v>
       </c>
       <c r="G5">
-        <v>0.6255005086403429</v>
+        <v>0.5471788787947247</v>
       </c>
       <c r="H5">
-        <v>0.0002738052848170192</v>
+        <v>0.0002126395580077656</v>
       </c>
       <c r="I5">
-        <v>0.0005747415003813927</v>
+        <v>0.0006059013108528077</v>
       </c>
       <c r="J5">
-        <v>0.4567224856003946</v>
+        <v>0.459243543730139</v>
       </c>
       <c r="K5">
-        <v>0.3175792512842044</v>
+        <v>0.2791340093543049</v>
       </c>
       <c r="L5">
-        <v>0.3974470979293727</v>
+        <v>0.1615308797188391</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06192055389099771</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3992204223010134</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.587410300903173</v>
+        <v>2.593322039821487</v>
       </c>
       <c r="C6">
-        <v>0.8671988759836324</v>
+        <v>0.9144368964072953</v>
       </c>
       <c r="D6">
-        <v>0.2431604901138797</v>
+        <v>0.2572282559453782</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.025357697903274</v>
+        <v>0.96216202092495</v>
       </c>
       <c r="G6">
-        <v>0.6213914440104844</v>
+        <v>0.5439366843489779</v>
       </c>
       <c r="H6">
-        <v>0.0003025872047905942</v>
+        <v>0.0002366034583431986</v>
       </c>
       <c r="I6">
-        <v>0.000690337887167658</v>
+        <v>0.0007278562251853415</v>
       </c>
       <c r="J6">
-        <v>0.4549775764595836</v>
+        <v>0.4576784454730785</v>
       </c>
       <c r="K6">
-        <v>0.3166709042556874</v>
+        <v>0.2786117036751001</v>
       </c>
       <c r="L6">
-        <v>0.3948705170921585</v>
+        <v>0.1613936035957089</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06175614103992189</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3966831354308198</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.715583298412696</v>
+        <v>2.721173384096687</v>
       </c>
       <c r="C7">
-        <v>0.9105952800541104</v>
+        <v>0.9613254713791548</v>
       </c>
       <c r="D7">
-        <v>0.2539598757437886</v>
+        <v>0.2694724187187774</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.050289926173463</v>
+        <v>0.9804601968137376</v>
       </c>
       <c r="G7">
-        <v>0.6359243594328916</v>
+        <v>0.5572427881867696</v>
       </c>
       <c r="H7">
-        <v>0.0001371955150284432</v>
+        <v>0.000101230311086109</v>
       </c>
       <c r="I7">
-        <v>0.0006674638673382915</v>
+        <v>0.0007932606248335361</v>
       </c>
       <c r="J7">
-        <v>0.4598760355572011</v>
+        <v>0.4555556578726652</v>
       </c>
       <c r="K7">
-        <v>0.3155671451993065</v>
+        <v>0.2754369522511233</v>
       </c>
       <c r="L7">
-        <v>0.4126078882928397</v>
+        <v>0.1590023254421595</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06116216821082432</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.4141179138054554</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.281053413251925</v>
+        <v>3.284793136775704</v>
       </c>
       <c r="C8">
-        <v>1.099349943100435</v>
+        <v>1.168625998672269</v>
       </c>
       <c r="D8">
-        <v>0.3009635879206058</v>
+        <v>0.3218547904512548</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.166524440641822</v>
+        <v>1.071535986038342</v>
       </c>
       <c r="G8">
-        <v>0.7058354673969376</v>
+        <v>0.6152070111986916</v>
       </c>
       <c r="H8">
-        <v>0.0001573294586330043</v>
+        <v>0.0001619290558980691</v>
       </c>
       <c r="I8">
-        <v>0.00105600346457102</v>
+        <v>0.001364460487417674</v>
       </c>
       <c r="J8">
-        <v>0.4846592228472986</v>
+        <v>0.4622199392042319</v>
       </c>
       <c r="K8">
-        <v>0.3138011297402699</v>
+        <v>0.2655735299842021</v>
       </c>
       <c r="L8">
-        <v>0.4910967277634768</v>
+        <v>0.1504701472682477</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06080801227808408</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4912740455637135</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.391510873852951</v>
+        <v>4.389404922822337</v>
       </c>
       <c r="C9">
-        <v>1.468034860850537</v>
+        <v>1.580045122776312</v>
       </c>
       <c r="D9">
-        <v>0.3927468296867573</v>
+        <v>0.422543648600481</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.410511399277553</v>
+        <v>1.271505477582139</v>
       </c>
       <c r="G9">
-        <v>0.85789475611071</v>
+        <v>0.7317276131534243</v>
       </c>
       <c r="H9">
-        <v>0.00327444172567759</v>
+        <v>0.002997854081546292</v>
       </c>
       <c r="I9">
-        <v>0.004494834207204867</v>
+        <v>0.004413619191260487</v>
       </c>
       <c r="J9">
-        <v>0.5415296330860997</v>
+        <v>0.5028138213650095</v>
       </c>
       <c r="K9">
-        <v>0.3181310785706657</v>
+        <v>0.2548805542922707</v>
       </c>
       <c r="L9">
-        <v>0.6463801873910029</v>
+        <v>0.1372074683394651</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06738064361487872</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6436941993231073</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.209581941684007</v>
+        <v>5.200971485590856</v>
       </c>
       <c r="C10">
-        <v>1.739902649036821</v>
+        <v>1.873762067336145</v>
       </c>
       <c r="D10">
-        <v>0.4505898555455303</v>
+        <v>0.4893505251631325</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.56047929074785</v>
+        <v>1.377473708359886</v>
       </c>
       <c r="G10">
-        <v>0.9528940717211754</v>
+        <v>0.8213233589714548</v>
       </c>
       <c r="H10">
-        <v>0.007658998650318161</v>
+        <v>0.006895012865912875</v>
       </c>
       <c r="I10">
-        <v>0.009271786826650086</v>
+        <v>0.008386708092580797</v>
       </c>
       <c r="J10">
-        <v>0.5752837348679947</v>
+        <v>0.488497677319927</v>
       </c>
       <c r="K10">
-        <v>0.3152772092332512</v>
+        <v>0.2387619330695721</v>
       </c>
       <c r="L10">
-        <v>0.7281919235798711</v>
+        <v>0.1242964357642933</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07170191181313967</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7229647635448373</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.574915507912635</v>
+        <v>5.563469552853746</v>
       </c>
       <c r="C11">
-        <v>1.814655128295271</v>
+        <v>1.919759613005056</v>
       </c>
       <c r="D11">
-        <v>0.3848092003301531</v>
+        <v>0.4232413333183729</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.346207466963293</v>
+        <v>1.162587349756492</v>
       </c>
       <c r="G11">
-        <v>0.8212084085000413</v>
+        <v>0.747271349206116</v>
       </c>
       <c r="H11">
-        <v>0.02595876379970008</v>
+        <v>0.02507968526684579</v>
       </c>
       <c r="I11">
-        <v>0.01131445471829284</v>
+        <v>0.01014475840929041</v>
       </c>
       <c r="J11">
-        <v>0.5030595373910671</v>
+        <v>0.3664575603208249</v>
       </c>
       <c r="K11">
-        <v>0.2500099744106521</v>
+        <v>0.1839338975481901</v>
       </c>
       <c r="L11">
-        <v>0.5033353314237132</v>
+        <v>0.102516525545985</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05391164398574233</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.497725383682706</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.710380277681679</v>
+        <v>5.698242528635035</v>
       </c>
       <c r="C12">
-        <v>1.811986786188811</v>
+        <v>1.892986896164416</v>
       </c>
       <c r="D12">
-        <v>0.3211623444235414</v>
+        <v>0.3552979531614398</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.153852813542755</v>
+        <v>0.9872191809255781</v>
       </c>
       <c r="G12">
-        <v>0.7042716506842197</v>
+        <v>0.6643790061015125</v>
       </c>
       <c r="H12">
-        <v>0.06387214784956541</v>
+        <v>0.06301724794786168</v>
       </c>
       <c r="I12">
-        <v>0.01156670974345531</v>
+        <v>0.01030776613745754</v>
       </c>
       <c r="J12">
-        <v>0.4418435611642337</v>
+        <v>0.3002213430011409</v>
       </c>
       <c r="K12">
-        <v>0.2047812531821549</v>
+        <v>0.1514012871807999</v>
       </c>
       <c r="L12">
-        <v>0.3374157051991347</v>
+        <v>0.09096228375386239</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04152056367005841</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3321323029990708</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.675201859578124</v>
+        <v>5.664216750809146</v>
       </c>
       <c r="C13">
-        <v>1.756535776282476</v>
+        <v>1.818698159714359</v>
       </c>
       <c r="D13">
-        <v>0.2574287918433953</v>
+        <v>0.2835363574151302</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.960492820405392</v>
+        <v>0.8283294750995083</v>
       </c>
       <c r="G13">
-        <v>0.5851708100276483</v>
+        <v>0.5594267457474871</v>
       </c>
       <c r="H13">
-        <v>0.1184414230186093</v>
+        <v>0.1177215975082078</v>
       </c>
       <c r="I13">
-        <v>0.01070523528458267</v>
+        <v>0.009615956924657887</v>
       </c>
       <c r="J13">
-        <v>0.3820080749172092</v>
+        <v>0.2700308846416846</v>
       </c>
       <c r="K13">
-        <v>0.1684783606773657</v>
+        <v>0.1306337444035872</v>
       </c>
       <c r="L13">
-        <v>0.2079011622919396</v>
+        <v>0.08447169386411524</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03191189958144491</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.203435017296016</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.573381726655157</v>
+        <v>5.563959885412942</v>
       </c>
       <c r="C14">
-        <v>1.695497586467809</v>
+        <v>1.746627484415114</v>
       </c>
       <c r="D14">
-        <v>0.2141844076723345</v>
+        <v>0.2336910501505258</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8266947849981818</v>
+        <v>0.7241013009560291</v>
       </c>
       <c r="G14">
-        <v>0.5016603021039003</v>
+        <v>0.4784802748744568</v>
       </c>
       <c r="H14">
-        <v>0.166858865779318</v>
+        <v>0.166267336457949</v>
       </c>
       <c r="I14">
-        <v>0.009725169245131227</v>
+        <v>0.0088695519727926</v>
       </c>
       <c r="J14">
-        <v>0.3410679397424161</v>
+        <v>0.261061910064079</v>
       </c>
       <c r="K14">
-        <v>0.1475963609532087</v>
+        <v>0.1207950533228264</v>
       </c>
       <c r="L14">
-        <v>0.1399196179894417</v>
+        <v>0.08173155990859815</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02648027144744169</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1361662519580165</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.512175343742285</v>
+        <v>5.503497840488365</v>
       </c>
       <c r="C15">
-        <v>1.671382256161223</v>
+        <v>1.720568662623975</v>
       </c>
       <c r="D15">
-        <v>0.2032651434353738</v>
+        <v>0.2206570589720229</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7912694706717502</v>
+        <v>0.6987035617487791</v>
       </c>
       <c r="G15">
-        <v>0.4788700082788466</v>
+        <v>0.4538570239882915</v>
       </c>
       <c r="H15">
-        <v>0.1790075399511863</v>
+        <v>0.1784687737441715</v>
       </c>
       <c r="I15">
-        <v>0.009365182933352756</v>
+        <v>0.008637030974180782</v>
       </c>
       <c r="J15">
-        <v>0.3304034593838168</v>
+        <v>0.2632970052945254</v>
       </c>
       <c r="K15">
-        <v>0.1432383157190209</v>
+        <v>0.119573377585116</v>
       </c>
       <c r="L15">
-        <v>0.1259694206843101</v>
+        <v>0.0815359563726723</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02536355346926733</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1224765660727947</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.1658763999597</v>
+        <v>5.160517564246788</v>
       </c>
       <c r="C16">
-        <v>1.569286126986071</v>
+        <v>1.624650791310842</v>
       </c>
       <c r="D16">
-        <v>0.193809344595806</v>
+        <v>0.2062950707028079</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7680281498036408</v>
+        <v>0.700657485501587</v>
       </c>
       <c r="G16">
-        <v>0.4618560197332755</v>
+        <v>0.4166373573820579</v>
       </c>
       <c r="H16">
-        <v>0.1647757305327531</v>
+        <v>0.16444362270299</v>
       </c>
       <c r="I16">
-        <v>0.007452901237233966</v>
+        <v>0.007176181582618568</v>
       </c>
       <c r="J16">
-        <v>0.3274989131366368</v>
+        <v>0.30682562744758</v>
       </c>
       <c r="K16">
-        <v>0.1505316585761687</v>
+        <v>0.131273283319695</v>
       </c>
       <c r="L16">
-        <v>0.1221356014554829</v>
+        <v>0.08645286375270711</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02739752880124691</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.119539445416379</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.955059478247904</v>
+        <v>4.951271757078075</v>
       </c>
       <c r="C17">
-        <v>1.523619909075933</v>
+        <v>1.587580454319095</v>
       </c>
       <c r="D17">
-        <v>0.2087365489762618</v>
+        <v>0.2209178634747957</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8191520131586287</v>
+        <v>0.7549993525656191</v>
       </c>
       <c r="G17">
-        <v>0.491984243951137</v>
+        <v>0.4321718742173601</v>
       </c>
       <c r="H17">
-        <v>0.1263380149986091</v>
+        <v>0.1260880527134276</v>
       </c>
       <c r="I17">
-        <v>0.006567513224891464</v>
+        <v>0.006492993636061151</v>
       </c>
       <c r="J17">
-        <v>0.3465266321035472</v>
+        <v>0.3434104339522719</v>
       </c>
       <c r="K17">
-        <v>0.1666641996965144</v>
+        <v>0.1456326464957698</v>
       </c>
       <c r="L17">
-        <v>0.1507928917996466</v>
+        <v>0.09222219585002556</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03151375344278939</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1485439598593246</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.836077256499323</v>
+        <v>4.832796710915375</v>
       </c>
       <c r="C18">
-        <v>1.51701736364663</v>
+        <v>1.595735113425235</v>
       </c>
       <c r="D18">
-        <v>0.248740231843243</v>
+        <v>0.2638597744778792</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9499705868058754</v>
+        <v>0.8734181452719696</v>
       </c>
       <c r="G18">
-        <v>0.572831057274982</v>
+        <v>0.4943545179877589</v>
       </c>
       <c r="H18">
-        <v>0.07353491356904129</v>
+        <v>0.07329473372980289</v>
       </c>
       <c r="I18">
-        <v>0.006092321877863682</v>
+        <v>0.006029837886661227</v>
       </c>
       <c r="J18">
-        <v>0.3898487186640835</v>
+        <v>0.3885579478257881</v>
       </c>
       <c r="K18">
-        <v>0.1962293063478882</v>
+        <v>0.1676562454415009</v>
       </c>
       <c r="L18">
-        <v>0.2309928704082367</v>
+        <v>0.1008295068227163</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03912945188893957</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2287016344572237</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.799141797284904</v>
+        <v>4.795523262051745</v>
       </c>
       <c r="C19">
-        <v>1.550574086639642</v>
+        <v>1.648769671455057</v>
       </c>
       <c r="D19">
-        <v>0.3123846854226002</v>
+        <v>0.3330177461063357</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.140215457309452</v>
+        <v>1.03985460198183</v>
       </c>
       <c r="G19">
-        <v>0.6890884644148656</v>
+        <v>0.587256672546701</v>
       </c>
       <c r="H19">
-        <v>0.02907622708252688</v>
+        <v>0.02878104846507767</v>
       </c>
       <c r="I19">
-        <v>0.006465108717167212</v>
+        <v>0.006384542230851054</v>
       </c>
       <c r="J19">
-        <v>0.4494292494870393</v>
+        <v>0.4401037387759175</v>
       </c>
       <c r="K19">
-        <v>0.2362402120355895</v>
+        <v>0.195448156537914</v>
       </c>
       <c r="L19">
-        <v>0.3780235155609688</v>
+        <v>0.1114423524277193</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04951850049594064</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3753292900378113</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.994077813737533</v>
+        <v>4.987604879523474</v>
       </c>
       <c r="C20">
-        <v>1.681768864628907</v>
+        <v>1.813718075701843</v>
       </c>
       <c r="D20">
-        <v>0.4379940966766469</v>
+        <v>0.4721067242169852</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.504299128693376</v>
+        <v>1.344363713922661</v>
       </c>
       <c r="G20">
-        <v>0.9129107280281232</v>
+        <v>0.77474941599678</v>
       </c>
       <c r="H20">
-        <v>0.006301994021111756</v>
+        <v>0.005711125115380078</v>
       </c>
       <c r="I20">
-        <v>0.008500286326979634</v>
+        <v>0.008062024475036011</v>
       </c>
       <c r="J20">
-        <v>0.5587253419593452</v>
+        <v>0.5081327323900524</v>
       </c>
       <c r="K20">
-        <v>0.3084262609908244</v>
+        <v>0.2399397457666304</v>
       </c>
       <c r="L20">
-        <v>0.7050615765017767</v>
+        <v>0.1265401651564737</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06923544170078344</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7006939941516777</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.624909681759675</v>
+        <v>5.611173736540707</v>
       </c>
       <c r="C21">
-        <v>1.899710875596497</v>
+        <v>2.028742339161624</v>
       </c>
       <c r="D21">
-        <v>0.499693646957212</v>
+        <v>0.5539454372860178</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.676035237888811</v>
+        <v>1.425735689918739</v>
       </c>
       <c r="G21">
-        <v>1.02228869653942</v>
+        <v>0.929969223710458</v>
       </c>
       <c r="H21">
-        <v>0.01073331568528424</v>
+        <v>0.009498634071880098</v>
       </c>
       <c r="I21">
-        <v>0.01303123527801109</v>
+        <v>0.011551871944393</v>
       </c>
       <c r="J21">
-        <v>0.6029992529659154</v>
+        <v>0.4032479341130966</v>
       </c>
       <c r="K21">
-        <v>0.3205703882858089</v>
+        <v>0.2239791727830713</v>
       </c>
       <c r="L21">
-        <v>0.8206198861750948</v>
+        <v>0.1157388383104223</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07160053421043955</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8132124624999051</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.038311166644178</v>
+        <v>6.019190421393773</v>
       </c>
       <c r="C22">
-        <v>2.034474411213125</v>
+        <v>2.158041697885778</v>
       </c>
       <c r="D22">
-        <v>0.5332721122954354</v>
+        <v>0.6015594074654871</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.77951004149233</v>
+        <v>1.466777987707147</v>
       </c>
       <c r="G22">
-        <v>1.090846225474877</v>
+        <v>1.037324001080606</v>
       </c>
       <c r="H22">
-        <v>0.01409569977614467</v>
+        <v>0.01234686007859531</v>
       </c>
       <c r="I22">
-        <v>0.01624200886630423</v>
+        <v>0.01384897764366322</v>
       </c>
       <c r="J22">
-        <v>0.6305639031710086</v>
+        <v>0.336203519773008</v>
       </c>
       <c r="K22">
-        <v>0.3282985403205245</v>
+        <v>0.2127726132516763</v>
       </c>
       <c r="L22">
-        <v>0.8795687504875787</v>
+        <v>0.1086606488913944</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07304984357542565</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8700942057732277</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.817679291560864</v>
+        <v>5.801636399984318</v>
       </c>
       <c r="C23">
-        <v>1.957104655848184</v>
+        <v>2.087325117077512</v>
       </c>
       <c r="D23">
-        <v>0.5141103617270346</v>
+        <v>0.5732716834337168</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.729833014986582</v>
+        <v>1.456239315255388</v>
       </c>
       <c r="G23">
-        <v>1.05934762797925</v>
+        <v>0.975925982023</v>
       </c>
       <c r="H23">
-        <v>0.01226011426200119</v>
+        <v>0.01080930112009014</v>
       </c>
       <c r="I23">
-        <v>0.01422913720236352</v>
+        <v>0.01229268788157789</v>
       </c>
       <c r="J23">
-        <v>0.6184460957355071</v>
+        <v>0.3857357029069135</v>
       </c>
       <c r="K23">
-        <v>0.3267983494599918</v>
+        <v>0.2223648907656397</v>
       </c>
       <c r="L23">
-        <v>0.8481175364469351</v>
+        <v>0.113602394554821</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07379823909922933</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8398410904046756</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.984689579166343</v>
+        <v>4.978185739443745</v>
       </c>
       <c r="C24">
-        <v>1.675284041958662</v>
+        <v>1.809705254462358</v>
       </c>
       <c r="D24">
-        <v>0.4441039294689801</v>
+        <v>0.4789623636743841</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.536290988626718</v>
+        <v>1.372376163522901</v>
       </c>
       <c r="G24">
-        <v>0.9351095708247072</v>
+        <v>0.792353427647484</v>
       </c>
       <c r="H24">
-        <v>0.006375273213042654</v>
+        <v>0.005771936393634824</v>
       </c>
       <c r="I24">
-        <v>0.008101916767744299</v>
+        <v>0.007556581412375252</v>
       </c>
       <c r="J24">
-        <v>0.5700846520420839</v>
+        <v>0.5185070865435648</v>
       </c>
       <c r="K24">
-        <v>0.3183438434969368</v>
+        <v>0.2471635310309495</v>
       </c>
       <c r="L24">
-        <v>0.7299172345772007</v>
+        <v>0.1292513864746816</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07195705631313132</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7254808266597195</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.090529833339701</v>
+        <v>4.09040711874195</v>
       </c>
       <c r="C25">
-        <v>1.375459492816333</v>
+        <v>1.477171584658322</v>
       </c>
       <c r="D25">
-        <v>0.3695523648357835</v>
+        <v>0.3959947214576118</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.334813500798674</v>
+        <v>1.212866767422668</v>
       </c>
       <c r="G25">
-        <v>0.8078327168787212</v>
+        <v>0.6885496036051535</v>
       </c>
       <c r="H25">
-        <v>0.00205715680788332</v>
+        <v>0.001906299903658537</v>
       </c>
       <c r="I25">
-        <v>0.003565944054884973</v>
+        <v>0.003766620248484287</v>
       </c>
       <c r="J25">
-        <v>0.5215178567343628</v>
+        <v>0.4973628109315626</v>
       </c>
       <c r="K25">
-        <v>0.312343339203764</v>
+        <v>0.2553597903953388</v>
       </c>
       <c r="L25">
-        <v>0.604078579631576</v>
+        <v>0.1398876410560632</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06423634756905017</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6022872086203819</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
